--- a/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.89276455907714</v>
+        <v>25.89276455907727</v>
       </c>
       <c r="C2">
-        <v>18.76182740309855</v>
+        <v>18.76182740309858</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.684518142117566</v>
+        <v>9.684518142117751</v>
       </c>
       <c r="F2">
-        <v>64.32054688096218</v>
+        <v>64.32054688096285</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.33365242788593</v>
+        <v>36.33365242788644</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.277213888022549</v>
+        <v>9.277213888022544</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.86023220976215</v>
+        <v>23.86023220976205</v>
       </c>
       <c r="C3">
-        <v>17.30008946462443</v>
+        <v>17.30008946462452</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.993479413732624</v>
+        <v>8.993479413732603</v>
       </c>
       <c r="F3">
-        <v>59.42682723141639</v>
+        <v>59.42682723141611</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.80963826599156</v>
+        <v>33.80963826599127</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.637520061901615</v>
+        <v>8.637520061901718</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.57170496783745</v>
+        <v>22.57170496783766</v>
       </c>
       <c r="C4">
         <v>16.37326795215446</v>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.571017449673853</v>
+        <v>8.571017449673873</v>
       </c>
       <c r="F4">
-        <v>56.43596688425902</v>
+        <v>56.43596688425955</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.2351527540455</v>
+        <v>32.235152754046</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.249166029199131</v>
+        <v>8.249166029199047</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.03559365243247</v>
+        <v>22.0355936524325</v>
       </c>
       <c r="C5">
-        <v>15.98755518221204</v>
+        <v>15.98755518221207</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.398716235001459</v>
+        <v>8.398716235001398</v>
       </c>
       <c r="F5">
-        <v>55.19710461824917</v>
+        <v>55.19710461824904</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.58621636676362</v>
+        <v>31.58621636676351</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.091329670096146</v>
+        <v>8.091329670096142</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.94588531223484</v>
+        <v>21.94588531223472</v>
       </c>
       <c r="C6">
-        <v>15.92300586027276</v>
+        <v>15.92300586027272</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.370081492868724</v>
+        <v>8.37008149286873</v>
       </c>
       <c r="F6">
-        <v>54.99013528880327</v>
+        <v>54.99013528880317</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.477992270488</v>
+        <v>31.47799227048794</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.06512860558357</v>
+        <v>8.065128605583697</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56452041872339</v>
+        <v>22.56452041872325</v>
       </c>
       <c r="C7">
-        <v>16.36809938385248</v>
+        <v>16.36809938385253</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.568695036828675</v>
+        <v>8.56869503682853</v>
       </c>
       <c r="F7">
-        <v>56.41934250379449</v>
+        <v>56.41934250379388</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.22643185140996</v>
+        <v>32.22643185140947</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.247036511539912</v>
+        <v>8.247036511539871</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.19981241686508</v>
+        <v>25.19981241686495</v>
       </c>
       <c r="C8">
-        <v>18.26347416525152</v>
+        <v>18.26347416525133</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.445460675987364</v>
+        <v>9.445460675987242</v>
       </c>
       <c r="F8">
-        <v>62.64524838277688</v>
+        <v>62.64524838277639</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.46774153606418</v>
+        <v>35.46774153606387</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.055272169613881</v>
+        <v>9.055272169613749</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.09344724899273</v>
+        <v>30.09344724899275</v>
       </c>
       <c r="C9">
-        <v>21.78436647131289</v>
+        <v>21.78436647131295</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.21510085465345</v>
+        <v>11.21510085465323</v>
       </c>
       <c r="F9">
-        <v>74.54335955814084</v>
+        <v>74.54335955814003</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.69739502862144</v>
+        <v>41.69739502862063</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.7151778886805</v>
+        <v>10.71517788868052</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.61044101708905</v>
+        <v>33.61044101708912</v>
       </c>
       <c r="C10">
-        <v>24.31901733200505</v>
+        <v>24.31901733200536</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.61511500320626</v>
+        <v>12.61511500320635</v>
       </c>
       <c r="F10">
-        <v>83.19443443535557</v>
+        <v>83.1944344353556</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.33731513833738</v>
+        <v>46.33731513833732</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.05653004683234</v>
+        <v>12.05653004683241</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.22325770870653</v>
+        <v>35.22325770870651</v>
       </c>
       <c r="C11">
-        <v>25.4831426290477</v>
+        <v>25.48314262904779</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.29806407040975</v>
+        <v>13.29806407040946</v>
       </c>
       <c r="F11">
-        <v>87.19241769659494</v>
+        <v>87.19241769659412</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.51194056243859</v>
+        <v>48.51194056243788</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.71966726369734</v>
+        <v>12.71966726369721</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.83958576052828</v>
+        <v>35.83958576052835</v>
       </c>
       <c r="C12">
-        <v>25.9283491845903</v>
+        <v>25.92834918459035</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.5664683510485</v>
+        <v>13.56646835104855</v>
       </c>
       <c r="F12">
-        <v>88.72578472308717</v>
+        <v>88.72578472308764</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>49.35109637280122</v>
+        <v>49.35109637280149</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.98180772385663</v>
+        <v>12.98180772385666</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>35.70652399680625</v>
       </c>
       <c r="C13">
-        <v>25.83221483398786</v>
+        <v>25.83221483398762</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.50816195052286</v>
+        <v>13.50816195052273</v>
       </c>
       <c r="F13">
-        <v>88.39446949442706</v>
+        <v>88.39446949442686</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>49.1695383403172</v>
+        <v>49.16953834031701</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.92479030556045</v>
+        <v>12.92479030556032</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.27382461824291</v>
+        <v>35.27382461824293</v>
       </c>
       <c r="C14">
-        <v>25.51966240555308</v>
+        <v>25.51966240555315</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.31992667576629</v>
+        <v>13.31992667576646</v>
       </c>
       <c r="F14">
-        <v>87.31810433413131</v>
+        <v>87.31810433413175</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.58061722184351</v>
+        <v>48.58061722184394</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.7409879674522</v>
+        <v>12.74098796745229</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.00964759553581</v>
+        <v>35.00964759553574</v>
       </c>
       <c r="C15">
-        <v>25.32888625636953</v>
+        <v>25.3288862563696</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.20601852651985</v>
+        <v>13.20601852652</v>
       </c>
       <c r="F15">
-        <v>86.66171040852196</v>
+        <v>86.66171040852224</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>48.22216610427017</v>
+        <v>48.22216610427053</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.62996532877461</v>
+        <v>12.62996532877454</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.50558718925639</v>
+        <v>33.50558718925612</v>
       </c>
       <c r="C16">
-        <v>24.24337692879169</v>
+        <v>24.24337692879156</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.57165125754383</v>
+        <v>12.57165125754358</v>
       </c>
       <c r="F16">
-        <v>82.93521587462665</v>
+        <v>82.93521587462571</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.19698020173151</v>
+        <v>46.19698020173074</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.01451887417198</v>
+        <v>12.0145188741719</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.5884464390594</v>
+        <v>32.58844643905939</v>
       </c>
       <c r="C17">
-        <v>23.58196960529833</v>
+        <v>23.58196960529823</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.19616078764246</v>
+        <v>12.19616078764281</v>
       </c>
       <c r="F17">
-        <v>80.67138138104848</v>
+        <v>80.67138138104931</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.97481153998045</v>
+        <v>44.97481153998125</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.65254958614983</v>
+        <v>11.65254958615</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.06186142095746</v>
+        <v>32.06186142095739</v>
       </c>
       <c r="C18">
-        <v>23.20237775187766</v>
+        <v>23.20237775187772</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.984279838208</v>
+        <v>11.98427983820793</v>
       </c>
       <c r="F18">
-        <v>79.37436920026002</v>
+        <v>79.37436920025975</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.2773639075626</v>
+        <v>44.27736390756248</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.4490739530227</v>
+        <v>11.4490739530226</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.8836363397294</v>
+        <v>31.88363633972964</v>
       </c>
       <c r="C19">
-        <v>23.07392853703854</v>
+        <v>23.07392853703862</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.91316661652962</v>
+        <v>11.9131666165302</v>
       </c>
       <c r="F19">
-        <v>78.93584119127145</v>
+        <v>78.935841191273</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.04200897294601</v>
+        <v>44.04200897294728</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.38090820099016</v>
+        <v>11.38090820099039</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.68595872842486</v>
+        <v>32.68595872842495</v>
       </c>
       <c r="C20">
-        <v>23.65227450880144</v>
+        <v>23.65227450880154</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.23569007708054</v>
+        <v>12.235690077081</v>
       </c>
       <c r="F20">
-        <v>80.91178126208331</v>
+        <v>80.91178126208429</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.10430421068044</v>
+        <v>45.10430421068135</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.6905729470659</v>
+        <v>11.69057294706613</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.40072998509711</v>
+        <v>35.40072998509692</v>
       </c>
       <c r="C21">
-        <v>25.61132012232282</v>
+        <v>25.61132012232267</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.37491826453005</v>
+        <v>13.3749182645294</v>
       </c>
       <c r="F21">
-        <v>87.63362716466882</v>
+        <v>87.63362716466712</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.75310672967957</v>
+        <v>48.75310672967797</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.79464144425954</v>
+        <v>12.7946414442593</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.21056623071072</v>
+        <v>37.21056623071065</v>
       </c>
       <c r="C22">
-        <v>26.91941062233078</v>
+        <v>26.91941062233088</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.1791492170593</v>
+        <v>14.17914921705936</v>
       </c>
       <c r="F22">
-        <v>92.1484261993558</v>
+        <v>92.1484261993557</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>51.2345195060775</v>
+        <v>51.23451950607743</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.58330337171868</v>
+        <v>13.58330337171872</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.23969583707499</v>
+        <v>36.23969583707511</v>
       </c>
       <c r="C23">
-        <v>26.21747701156662</v>
+        <v>26.2174770115667</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.74300604872893</v>
+        <v>13.74300604872963</v>
       </c>
       <c r="F23">
-        <v>89.72294546054876</v>
+        <v>89.72294546055035</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.89833776375506</v>
+        <v>49.8983377637564</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.15468307896137</v>
+        <v>13.15468307896165</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.64187152785571</v>
+        <v>32.64187152785553</v>
       </c>
       <c r="C24">
-        <v>23.62048779933701</v>
+        <v>23.62048779933702</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.21780666398884</v>
+        <v>12.21780666398851</v>
       </c>
       <c r="F24">
-        <v>80.80308319146707</v>
+        <v>80.80308319146623</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.0457448452458</v>
+        <v>45.04574484524503</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.67336841385263</v>
+        <v>11.67336841385254</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.79122428290926</v>
+        <v>28.79122428290922</v>
       </c>
       <c r="C25">
-        <v>20.84695734032992</v>
+        <v>20.84695734032999</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.72509207911003</v>
+        <v>10.72509207910993</v>
       </c>
       <c r="F25">
-        <v>71.36185710686094</v>
+        <v>71.3618571068607</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.01389303643849</v>
+        <v>40.01389303643821</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.25158050663677</v>
+        <v>10.2515805066367</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.89276455907727</v>
+        <v>25.89276455907714</v>
       </c>
       <c r="C2">
-        <v>18.76182740309858</v>
+        <v>18.76182740309855</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.684518142117751</v>
+        <v>9.684518142117566</v>
       </c>
       <c r="F2">
-        <v>64.32054688096285</v>
+        <v>64.32054688096218</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.33365242788644</v>
+        <v>36.33365242788593</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.277213888022544</v>
+        <v>9.277213888022549</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.86023220976205</v>
+        <v>23.86023220976215</v>
       </c>
       <c r="C3">
-        <v>17.30008946462452</v>
+        <v>17.30008946462443</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.993479413732603</v>
+        <v>8.993479413732624</v>
       </c>
       <c r="F3">
-        <v>59.42682723141611</v>
+        <v>59.42682723141639</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.80963826599127</v>
+        <v>33.80963826599156</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.637520061901718</v>
+        <v>8.637520061901615</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.57170496783766</v>
+        <v>22.57170496783745</v>
       </c>
       <c r="C4">
         <v>16.37326795215446</v>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.571017449673873</v>
+        <v>8.571017449673853</v>
       </c>
       <c r="F4">
-        <v>56.43596688425955</v>
+        <v>56.43596688425902</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.235152754046</v>
+        <v>32.2351527540455</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.249166029199047</v>
+        <v>8.249166029199131</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.0355936524325</v>
+        <v>22.03559365243247</v>
       </c>
       <c r="C5">
-        <v>15.98755518221207</v>
+        <v>15.98755518221204</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.398716235001398</v>
+        <v>8.398716235001459</v>
       </c>
       <c r="F5">
-        <v>55.19710461824904</v>
+        <v>55.19710461824917</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.58621636676351</v>
+        <v>31.58621636676362</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.091329670096142</v>
+        <v>8.091329670096146</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.94588531223472</v>
+        <v>21.94588531223484</v>
       </c>
       <c r="C6">
-        <v>15.92300586027272</v>
+        <v>15.92300586027276</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.37008149286873</v>
+        <v>8.370081492868724</v>
       </c>
       <c r="F6">
-        <v>54.99013528880317</v>
+        <v>54.99013528880327</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.47799227048794</v>
+        <v>31.477992270488</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.065128605583697</v>
+        <v>8.06512860558357</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56452041872325</v>
+        <v>22.56452041872339</v>
       </c>
       <c r="C7">
-        <v>16.36809938385253</v>
+        <v>16.36809938385248</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.56869503682853</v>
+        <v>8.568695036828675</v>
       </c>
       <c r="F7">
-        <v>56.41934250379388</v>
+        <v>56.41934250379449</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.22643185140947</v>
+        <v>32.22643185140996</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.247036511539871</v>
+        <v>8.247036511539912</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.19981241686495</v>
+        <v>25.19981241686508</v>
       </c>
       <c r="C8">
-        <v>18.26347416525133</v>
+        <v>18.26347416525152</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.445460675987242</v>
+        <v>9.445460675987364</v>
       </c>
       <c r="F8">
-        <v>62.64524838277639</v>
+        <v>62.64524838277688</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.46774153606387</v>
+        <v>35.46774153606418</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.055272169613749</v>
+        <v>9.055272169613881</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.09344724899275</v>
+        <v>30.09344724899273</v>
       </c>
       <c r="C9">
-        <v>21.78436647131295</v>
+        <v>21.78436647131289</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.21510085465323</v>
+        <v>11.21510085465345</v>
       </c>
       <c r="F9">
-        <v>74.54335955814003</v>
+        <v>74.54335955814084</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.69739502862063</v>
+        <v>41.69739502862144</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.71517788868052</v>
+        <v>10.7151778886805</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.61044101708912</v>
+        <v>33.61044101708905</v>
       </c>
       <c r="C10">
-        <v>24.31901733200536</v>
+        <v>24.31901733200505</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.61511500320635</v>
+        <v>12.61511500320626</v>
       </c>
       <c r="F10">
-        <v>83.1944344353556</v>
+        <v>83.19443443535557</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.33731513833732</v>
+        <v>46.33731513833738</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.05653004683241</v>
+        <v>12.05653004683234</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.22325770870651</v>
+        <v>35.22325770870653</v>
       </c>
       <c r="C11">
-        <v>25.48314262904779</v>
+        <v>25.4831426290477</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.29806407040946</v>
+        <v>13.29806407040975</v>
       </c>
       <c r="F11">
-        <v>87.19241769659412</v>
+        <v>87.19241769659494</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.51194056243788</v>
+        <v>48.51194056243859</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.71966726369721</v>
+        <v>12.71966726369734</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.83958576052835</v>
+        <v>35.83958576052828</v>
       </c>
       <c r="C12">
-        <v>25.92834918459035</v>
+        <v>25.9283491845903</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.56646835104855</v>
+        <v>13.5664683510485</v>
       </c>
       <c r="F12">
-        <v>88.72578472308764</v>
+        <v>88.72578472308717</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>49.35109637280149</v>
+        <v>49.35109637280122</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.98180772385666</v>
+        <v>12.98180772385663</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>35.70652399680625</v>
       </c>
       <c r="C13">
-        <v>25.83221483398762</v>
+        <v>25.83221483398786</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.50816195052273</v>
+        <v>13.50816195052286</v>
       </c>
       <c r="F13">
-        <v>88.39446949442686</v>
+        <v>88.39446949442706</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>49.16953834031701</v>
+        <v>49.1695383403172</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.92479030556032</v>
+        <v>12.92479030556045</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.27382461824293</v>
+        <v>35.27382461824291</v>
       </c>
       <c r="C14">
-        <v>25.51966240555315</v>
+        <v>25.51966240555308</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.31992667576646</v>
+        <v>13.31992667576629</v>
       </c>
       <c r="F14">
-        <v>87.31810433413175</v>
+        <v>87.31810433413131</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.58061722184394</v>
+        <v>48.58061722184351</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.74098796745229</v>
+        <v>12.7409879674522</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.00964759553574</v>
+        <v>35.00964759553581</v>
       </c>
       <c r="C15">
-        <v>25.3288862563696</v>
+        <v>25.32888625636953</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.20601852652</v>
+        <v>13.20601852651985</v>
       </c>
       <c r="F15">
-        <v>86.66171040852224</v>
+        <v>86.66171040852196</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>48.22216610427053</v>
+        <v>48.22216610427017</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.62996532877454</v>
+        <v>12.62996532877461</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.50558718925612</v>
+        <v>33.50558718925639</v>
       </c>
       <c r="C16">
-        <v>24.24337692879156</v>
+        <v>24.24337692879169</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.57165125754358</v>
+        <v>12.57165125754383</v>
       </c>
       <c r="F16">
-        <v>82.93521587462571</v>
+        <v>82.93521587462665</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.19698020173074</v>
+        <v>46.19698020173151</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.0145188741719</v>
+        <v>12.01451887417198</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.58844643905939</v>
+        <v>32.5884464390594</v>
       </c>
       <c r="C17">
-        <v>23.58196960529823</v>
+        <v>23.58196960529833</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.19616078764281</v>
+        <v>12.19616078764246</v>
       </c>
       <c r="F17">
-        <v>80.67138138104931</v>
+        <v>80.67138138104848</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.97481153998125</v>
+        <v>44.97481153998045</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.65254958615</v>
+        <v>11.65254958614983</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.06186142095739</v>
+        <v>32.06186142095746</v>
       </c>
       <c r="C18">
-        <v>23.20237775187772</v>
+        <v>23.20237775187766</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.98427983820793</v>
+        <v>11.984279838208</v>
       </c>
       <c r="F18">
-        <v>79.37436920025975</v>
+        <v>79.37436920026002</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.27736390756248</v>
+        <v>44.2773639075626</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.4490739530226</v>
+        <v>11.4490739530227</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.88363633972964</v>
+        <v>31.8836363397294</v>
       </c>
       <c r="C19">
-        <v>23.07392853703862</v>
+        <v>23.07392853703854</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.9131666165302</v>
+        <v>11.91316661652962</v>
       </c>
       <c r="F19">
-        <v>78.935841191273</v>
+        <v>78.93584119127145</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.04200897294728</v>
+        <v>44.04200897294601</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.38090820099039</v>
+        <v>11.38090820099016</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.68595872842495</v>
+        <v>32.68595872842486</v>
       </c>
       <c r="C20">
-        <v>23.65227450880154</v>
+        <v>23.65227450880144</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.235690077081</v>
+        <v>12.23569007708054</v>
       </c>
       <c r="F20">
-        <v>80.91178126208429</v>
+        <v>80.91178126208331</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.10430421068135</v>
+        <v>45.10430421068044</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.69057294706613</v>
+        <v>11.6905729470659</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.40072998509692</v>
+        <v>35.40072998509711</v>
       </c>
       <c r="C21">
-        <v>25.61132012232267</v>
+        <v>25.61132012232282</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.3749182645294</v>
+        <v>13.37491826453005</v>
       </c>
       <c r="F21">
-        <v>87.63362716466712</v>
+        <v>87.63362716466882</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.75310672967797</v>
+        <v>48.75310672967957</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.7946414442593</v>
+        <v>12.79464144425954</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.21056623071065</v>
+        <v>37.21056623071072</v>
       </c>
       <c r="C22">
-        <v>26.91941062233088</v>
+        <v>26.91941062233078</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.17914921705936</v>
+        <v>14.1791492170593</v>
       </c>
       <c r="F22">
-        <v>92.1484261993557</v>
+        <v>92.1484261993558</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>51.23451950607743</v>
+        <v>51.2345195060775</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.58330337171872</v>
+        <v>13.58330337171868</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.23969583707511</v>
+        <v>36.23969583707499</v>
       </c>
       <c r="C23">
-        <v>26.2174770115667</v>
+        <v>26.21747701156662</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.74300604872963</v>
+        <v>13.74300604872893</v>
       </c>
       <c r="F23">
-        <v>89.72294546055035</v>
+        <v>89.72294546054876</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.8983377637564</v>
+        <v>49.89833776375506</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.15468307896165</v>
+        <v>13.15468307896137</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.64187152785553</v>
+        <v>32.64187152785571</v>
       </c>
       <c r="C24">
-        <v>23.62048779933702</v>
+        <v>23.62048779933701</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.21780666398851</v>
+        <v>12.21780666398884</v>
       </c>
       <c r="F24">
-        <v>80.80308319146623</v>
+        <v>80.80308319146707</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.04574484524503</v>
+        <v>45.0457448452458</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.67336841385254</v>
+        <v>11.67336841385263</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.79122428290922</v>
+        <v>28.79122428290926</v>
       </c>
       <c r="C25">
-        <v>20.84695734032999</v>
+        <v>20.84695734032992</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.72509207910993</v>
+        <v>10.72509207911003</v>
       </c>
       <c r="F25">
-        <v>71.3618571068607</v>
+        <v>71.36185710686094</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.01389303643821</v>
+        <v>40.01389303643849</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.2515805066367</v>
+        <v>10.25158050663677</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.89276455907714</v>
+        <v>25.69093004558722</v>
       </c>
       <c r="C2">
-        <v>18.76182740309855</v>
+        <v>18.54300120284508</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.684518142117566</v>
+        <v>9.868695863046023</v>
       </c>
       <c r="F2">
-        <v>64.32054688096218</v>
+        <v>64.23365925310975</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.031790010649462</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.33365242788593</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>36.37239930492266</v>
       </c>
       <c r="K2">
-        <v>9.277213888022549</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.311790189318868</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.86023220976215</v>
+        <v>23.67559718766578</v>
       </c>
       <c r="C3">
-        <v>17.30008946462443</v>
+        <v>17.09231646754552</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.993479413732624</v>
+        <v>9.185393119239587</v>
       </c>
       <c r="F3">
-        <v>59.42682723141639</v>
+        <v>59.39070798469031</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.051214352218702</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.80963826599156</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>33.86984832817357</v>
       </c>
       <c r="K3">
-        <v>8.637520061901615</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.675632687012996</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.57170496783745</v>
+        <v>22.39825701126876</v>
       </c>
       <c r="C4">
-        <v>16.37326795215446</v>
+        <v>16.17242575984974</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.571017449673853</v>
+        <v>8.767779044429309</v>
       </c>
       <c r="F4">
-        <v>56.43596688425902</v>
+        <v>56.41504289694785</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.063137174653542</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.2351527540455</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>32.30906552105385</v>
       </c>
       <c r="K4">
-        <v>8.249166029199131</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.289238952261137</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.03559365243247</v>
+        <v>21.86689633555674</v>
       </c>
       <c r="C5">
-        <v>15.98755518221204</v>
+        <v>15.7895909789127</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.398716235001459</v>
+        <v>8.597491879347997</v>
       </c>
       <c r="F5">
-        <v>55.19710461824917</v>
+        <v>55.18252242276732</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.068009348616754</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.58621636676362</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>31.66588263840381</v>
       </c>
       <c r="K5">
-        <v>8.091329670096146</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.132161751877609</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.94588531223484</v>
+        <v>21.77798943085683</v>
       </c>
       <c r="C6">
-        <v>15.92300586027276</v>
+        <v>15.72552325691854</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.370081492868724</v>
+        <v>8.569194242519814</v>
       </c>
       <c r="F6">
-        <v>54.99013528880327</v>
+        <v>54.97661666304404</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.068819566272157</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.477992270488</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>31.55862514773202</v>
       </c>
       <c r="K6">
-        <v>8.06512860558357</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.106084680939379</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.56452041872339</v>
+        <v>22.39113570880803</v>
       </c>
       <c r="C7">
-        <v>16.36809938385248</v>
+        <v>16.16729576639812</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.568695036828675</v>
+        <v>8.765483621763677</v>
       </c>
       <c r="F7">
-        <v>56.41934250379449</v>
+        <v>56.39850337061868</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.063202810268028</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.22643185140996</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>32.30042147985544</v>
       </c>
       <c r="K7">
-        <v>8.247036511539912</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.28711981814889</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.19981241686508</v>
+        <v>25.00379905953537</v>
       </c>
       <c r="C8">
-        <v>18.26347416525152</v>
+        <v>18.04844041931026</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.445460675987364</v>
+        <v>9.632294828473743</v>
       </c>
       <c r="F8">
-        <v>62.64524838277688</v>
+        <v>62.56602798374795</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.03849782556439</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.46774153606418</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>35.51380476981258</v>
       </c>
       <c r="K8">
-        <v>9.055272169613881</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.091120765023062</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.09344724899273</v>
+        <v>29.85637935985083</v>
       </c>
       <c r="C9">
-        <v>21.78436647131289</v>
+        <v>21.54160782275405</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.21510085465345</v>
+        <v>11.38233639945151</v>
       </c>
       <c r="F9">
-        <v>74.54335955814084</v>
+        <v>74.40672066820227</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.989205028872783</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>41.69739502862144</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>41.69071744530708</v>
       </c>
       <c r="K9">
-        <v>10.7151778886805</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.74019671554756</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.61044101708905</v>
+        <v>33.34237184234623</v>
       </c>
       <c r="C10">
-        <v>24.31901733200505</v>
+        <v>24.054122718523</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.61511500320626</v>
+        <v>12.76609255150218</v>
       </c>
       <c r="F10">
-        <v>83.19443443535557</v>
+        <v>83.00873700934265</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.950962556555215</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>46.33731513833738</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>46.28891390138691</v>
       </c>
       <c r="K10">
-        <v>12.05653004683234</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>12.07019455650316</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.22325770870653</v>
+        <v>34.93991196687369</v>
       </c>
       <c r="C11">
-        <v>25.4831426290477</v>
+        <v>25.20708564131849</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.29806407040975</v>
+        <v>13.44050631883159</v>
       </c>
       <c r="F11">
-        <v>87.19241769659494</v>
+        <v>86.9805950056848</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.9326199892779</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>48.51194056243859</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>48.44230366227627</v>
       </c>
       <c r="K11">
-        <v>12.71966726369734</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.72665569453426</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.83958576052828</v>
+        <v>35.55014923006113</v>
       </c>
       <c r="C12">
-        <v>25.9283491845903</v>
+        <v>25.6478071190266</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.5664683510485</v>
+        <v>13.70540485099815</v>
       </c>
       <c r="F12">
-        <v>88.72578472308717</v>
+        <v>88.50318176428468</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.9254751716356</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>49.35109637280122</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>49.27286110294724</v>
       </c>
       <c r="K12">
-        <v>12.98180772385663</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.98593427415099</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.70652399680625</v>
+        <v>35.41841582765929</v>
       </c>
       <c r="C13">
-        <v>25.83221483398786</v>
+        <v>25.55265241531714</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.50816195052286</v>
+        <v>13.64786811922335</v>
       </c>
       <c r="F13">
-        <v>88.39446949442706</v>
+        <v>88.17423531850477</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.927024056171589</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>49.1695383403172</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>49.09318482311622</v>
       </c>
       <c r="K13">
-        <v>12.92479030556045</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.92955069167882</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.27382461824291</v>
+        <v>34.98998496277119</v>
       </c>
       <c r="C14">
-        <v>25.51966240555308</v>
+        <v>25.24324237939713</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.31992667576629</v>
+        <v>13.46208685154019</v>
       </c>
       <c r="F14">
-        <v>87.31810433413131</v>
+        <v>87.10541518008495</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.932036616199636</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>48.58061722184351</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>48.51028589720052</v>
       </c>
       <c r="K14">
-        <v>12.7409879674522</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.74774855853562</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.00964759553581</v>
+        <v>34.7283773981796</v>
       </c>
       <c r="C15">
-        <v>25.32888625636953</v>
+        <v>25.05435349284264</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.20601852651985</v>
+        <v>13.3496418699183</v>
       </c>
       <c r="F15">
-        <v>86.66171040852196</v>
+        <v>86.45351387970317</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.935078768787411</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>48.22216610427017</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>48.15544190991783</v>
       </c>
       <c r="K15">
-        <v>12.62996532877461</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.63790300507538</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.50558718925639</v>
+        <v>33.23848253411243</v>
       </c>
       <c r="C16">
-        <v>24.24337692879169</v>
+        <v>23.97918232064357</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.57165125754383</v>
+        <v>12.72315562908347</v>
       </c>
       <c r="F16">
-        <v>82.93521587462665</v>
+        <v>82.75112416828556</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.952137401210311</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>46.19698020173151</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>46.14990420353865</v>
       </c>
       <c r="K16">
-        <v>12.01451887417198</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>12.02858074534116</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.5884464390594</v>
+        <v>32.32965306043866</v>
       </c>
       <c r="C17">
-        <v>23.58196960529833</v>
+        <v>23.32378013978899</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.19616078764246</v>
+        <v>12.35214716874075</v>
       </c>
       <c r="F17">
-        <v>80.67138138104848</v>
+        <v>80.50091223486767</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.962322187730116</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.97481153998045</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>44.93908083601511</v>
       </c>
       <c r="K17">
-        <v>11.65254958614983</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.66991699423385</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.06186142095746</v>
+        <v>31.80774887160079</v>
       </c>
       <c r="C18">
-        <v>23.20237775187766</v>
+        <v>22.94754755805191</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.984279838208</v>
+        <v>12.14274584571928</v>
       </c>
       <c r="F18">
-        <v>79.37436920026002</v>
+        <v>79.21140446256277</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.968095984398312</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.2773639075626</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>44.24796519166237</v>
       </c>
       <c r="K18">
-        <v>11.4490739530227</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.46820992815914</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.8836363397294</v>
+        <v>31.63109469778884</v>
       </c>
       <c r="C19">
-        <v>23.07392853703854</v>
+        <v>22.82022177404794</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.91316661652962</v>
+        <v>12.07245774583667</v>
       </c>
       <c r="F19">
-        <v>78.93584119127145</v>
+        <v>78.77536811096918</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.970037984820191</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.04200897294601</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>44.01472618661927</v>
       </c>
       <c r="K19">
-        <v>11.38090820099016</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.40062278109244</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.68595872842486</v>
+        <v>32.4262916925567</v>
       </c>
       <c r="C20">
-        <v>23.65227450880144</v>
+        <v>23.3934561629164</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.23569007708054</v>
+        <v>12.39121012498457</v>
       </c>
       <c r="F20">
-        <v>80.91178126208331</v>
+        <v>80.73989812049805</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.961247099105374</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.10430421068044</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>45.06738711909151</v>
       </c>
       <c r="K20">
-        <v>11.6905729470659</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.70760285366169</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.40072998509711</v>
+        <v>35.11564632530168</v>
       </c>
       <c r="C21">
-        <v>25.61132012232282</v>
+        <v>25.33398518833914</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.37491826453005</v>
+        <v>13.51636626715878</v>
       </c>
       <c r="F21">
-        <v>87.63362716466882</v>
+        <v>87.41874962933652</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.930570329051775</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>48.75310672967957</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>48.68102417131676</v>
       </c>
       <c r="K21">
-        <v>12.79464144425954</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.80082486526497</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.21056623071072</v>
+        <v>36.90695970727834</v>
       </c>
       <c r="C22">
-        <v>26.91941062233078</v>
+        <v>26.62837344481934</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.1791492170593</v>
+        <v>14.30969618342513</v>
       </c>
       <c r="F22">
-        <v>92.1484261993558</v>
+        <v>91.89994445343343</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.909311887054831</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>51.2345195060775</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>51.13598264770266</v>
       </c>
       <c r="K22">
-        <v>13.58330337171868</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>13.58033587579237</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.23969583707499</v>
+        <v>35.94621780921609</v>
       </c>
       <c r="C23">
-        <v>26.21747701156662</v>
+        <v>25.93394964987575</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.74300604872893</v>
+        <v>13.87958326087006</v>
       </c>
       <c r="F23">
-        <v>89.72294546054876</v>
+        <v>89.49307504349936</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.920796620633394</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.89833776375506</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>49.81435486356119</v>
       </c>
       <c r="K23">
-        <v>13.15468307896137</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>13.15684814205435</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.64187152785571</v>
+        <v>32.38259976673255</v>
       </c>
       <c r="C24">
-        <v>23.62048779933701</v>
+        <v>23.36195405371157</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.21780666398884</v>
+        <v>12.37353783645791</v>
       </c>
       <c r="F24">
-        <v>80.80308319146707</v>
+        <v>80.63184031444214</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.961733396382914</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.0457448452458</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>45.00936469764113</v>
       </c>
       <c r="K24">
-        <v>11.67336841385263</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.69055130781279</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.79122428290926</v>
+        <v>28.56516004810673</v>
       </c>
       <c r="C25">
-        <v>20.84695734032992</v>
+        <v>20.61183667834475</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.72509207911003</v>
+        <v>10.89778337851231</v>
       </c>
       <c r="F25">
-        <v>71.36185710686094</v>
+        <v>71.24140568510609</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.002762463541475</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>40.01389303643849</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>40.02161698992139</v>
       </c>
       <c r="K25">
-        <v>10.25158050663677</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>10.27994636528507</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.69093004558722</v>
+        <v>32.34639102509501</v>
       </c>
       <c r="C2">
-        <v>18.54300120284508</v>
+        <v>18.93259533808567</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.868695863046023</v>
+        <v>5.001937648424319</v>
       </c>
       <c r="F2">
-        <v>64.23365925310975</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.031790010649462</v>
+        <v>2.081268480842494</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>36.37239930492266</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.311790189318868</v>
+        <v>7.999652175436522</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>15.51988451938765</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.67559718766578</v>
+        <v>30.2445979188498</v>
       </c>
       <c r="C3">
-        <v>17.09231646754552</v>
+        <v>17.49771410435849</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.185393119239587</v>
+        <v>5.010290033953075</v>
       </c>
       <c r="F3">
-        <v>59.39070798469031</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.051214352218702</v>
+        <v>2.09833566229683</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>33.86984832817357</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.675632687012996</v>
+        <v>7.714846529654869</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>15.61419736475824</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.39825701126876</v>
+        <v>28.92441639547804</v>
       </c>
       <c r="C4">
-        <v>16.17242575984974</v>
+        <v>16.5817548436696</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.767779044429309</v>
+        <v>5.016713476803495</v>
       </c>
       <c r="F4">
-        <v>56.41504289694785</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.063137174653542</v>
+        <v>2.108923429390602</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>32.30906552105385</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.289238952261137</v>
+        <v>7.543759453932012</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>15.67944177604048</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.86689633555674</v>
+        <v>28.37897629687881</v>
       </c>
       <c r="C5">
-        <v>15.7895909789127</v>
+        <v>16.19933203723089</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.597491879347997</v>
+        <v>5.019635869324012</v>
       </c>
       <c r="F5">
-        <v>55.18252242276732</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.068009348616754</v>
+        <v>2.113273370433046</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>31.66588263840381</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.132161751877609</v>
+        <v>7.47498963889866</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>15.70773401290676</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.77798943085683</v>
+        <v>28.28795954697061</v>
       </c>
       <c r="C6">
-        <v>15.72552325691854</v>
+        <v>16.1352675468417</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.569194242519814</v>
+        <v>5.020138990404096</v>
       </c>
       <c r="F6">
-        <v>54.97661666304404</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.068819566272157</v>
+        <v>2.113998027050477</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>31.55862514773202</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.106084680939379</v>
+        <v>7.463628008051927</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>15.71253111343252</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.39113570880803</v>
+        <v>28.91709045490687</v>
       </c>
       <c r="C7">
-        <v>16.16729576639812</v>
+        <v>16.57663491619335</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.765483621763677</v>
+        <v>5.016751680324978</v>
       </c>
       <c r="F7">
-        <v>56.39850337061868</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.063202810268028</v>
+        <v>2.108981941158437</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>32.30042147985544</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.28711981814889</v>
+        <v>7.542828148308694</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>15.67981660523762</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.00379905953537</v>
+        <v>31.62780109591728</v>
       </c>
       <c r="C8">
-        <v>18.04844041931026</v>
+        <v>18.44485655033268</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.632294828473743</v>
+        <v>5.004535106842563</v>
       </c>
       <c r="F8">
-        <v>62.56602798374795</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.03849782556439</v>
+        <v>2.087135917101832</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>35.51380476981258</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.091120765023062</v>
+        <v>7.900659536028935</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>15.55079080831325</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.85637935985083</v>
+        <v>36.86836229708611</v>
       </c>
       <c r="C9">
-        <v>21.54160782275405</v>
+        <v>21.85124947536114</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.38233639945151</v>
+        <v>4.992011979929912</v>
       </c>
       <c r="F9">
-        <v>74.40672066820227</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>1.989205028872783</v>
+        <v>2.044729998453148</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>41.69071744530708</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.74019671554756</v>
+        <v>8.633510668580643</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>15.36340916897771</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.34237184234623</v>
+        <v>40.72554708544634</v>
       </c>
       <c r="C10">
-        <v>24.054122718523</v>
+        <v>24.23089913088904</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.76609255150218</v>
+        <v>4.991847913612204</v>
       </c>
       <c r="F10">
-        <v>83.00873700934265</v>
+        <v>37.72874519847369</v>
       </c>
       <c r="G10">
-        <v>1.950962556555215</v>
+        <v>2.013120123740011</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>46.28891390138691</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.07019455650316</v>
+        <v>9.194532155746863</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>15.27826778330218</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.93991196687369</v>
+        <v>42.45590562708326</v>
       </c>
       <c r="C11">
-        <v>25.20708564131849</v>
+        <v>25.29648728443421</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.44050631883159</v>
+        <v>4.99437805803451</v>
       </c>
       <c r="F11">
-        <v>86.9805950056848</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>1.9326199892779</v>
+        <v>1.99843339436064</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>48.44230366227627</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.72665569453426</v>
+        <v>9.456224068376979</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>15.25454052629057</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.55014923006113</v>
+        <v>43.10912028460462</v>
       </c>
       <c r="C12">
-        <v>25.6478071190266</v>
+        <v>25.69860944105356</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.70540485099815</v>
+        <v>4.995784134938097</v>
       </c>
       <c r="F12">
-        <v>88.50318176428468</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.9254751716356</v>
+        <v>1.992805323257167</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>49.27286110294724</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.98593427415099</v>
+        <v>9.556453803236368</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>15.24809776178624</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.41841582765929</v>
+        <v>42.96850186525313</v>
       </c>
       <c r="C13">
-        <v>25.55265241531714</v>
+        <v>25.61204793020252</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.64786811922335</v>
+        <v>4.995459989522802</v>
       </c>
       <c r="F13">
-        <v>88.17423531850477</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>1.927024056171589</v>
+        <v>1.994020801637181</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>49.09318482311622</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.92955069167882</v>
+        <v>9.534813174653879</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>15.24936520355409</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.98998496277119</v>
+        <v>42.50967702073025</v>
       </c>
       <c r="C14">
-        <v>25.24324237939713</v>
+        <v>25.32959118641007</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.46208685154019</v>
+        <v>4.994484263061373</v>
       </c>
       <c r="F14">
-        <v>87.10541518008495</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>1.932036616199636</v>
+        <v>1.997971849925821</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>48.51028589720052</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.74774855853562</v>
+        <v>9.464445918339987</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>15.25395701565663</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.7283773981796</v>
+        <v>42.22841846979867</v>
       </c>
       <c r="C15">
-        <v>25.05435349284264</v>
+        <v>25.15643194790865</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.3496418699183</v>
+        <v>4.993947475551089</v>
       </c>
       <c r="F15">
-        <v>86.45351387970317</v>
+        <v>38.96319309154518</v>
       </c>
       <c r="G15">
-        <v>1.935078768787411</v>
+        <v>2.000382563988476</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>48.15544190991783</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.63790300507538</v>
+        <v>9.421498641104408</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>15.25711357761161</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.23848253411243</v>
+        <v>40.61209148162293</v>
       </c>
       <c r="C16">
-        <v>23.97918232064357</v>
+        <v>24.16100347941059</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.72315562908347</v>
+        <v>4.991740797942019</v>
       </c>
       <c r="F16">
-        <v>82.75112416828556</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>1.952137401210311</v>
+        <v>2.014071959161714</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>46.14990420353865</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.02858074534116</v>
+        <v>9.177575961562995</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>15.28015134985682</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.32965306043866</v>
+        <v>39.61522923940244</v>
       </c>
       <c r="C17">
-        <v>23.32378013978899</v>
+        <v>23.54667416432688</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.35214716874075</v>
+        <v>4.991100379568303</v>
       </c>
       <c r="F17">
-        <v>80.50091223486767</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>1.962322187730116</v>
+        <v>2.022376919204186</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>44.93908083601511</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.66991699423385</v>
+        <v>9.029718717802121</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>15.29837576731994</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.80774887160079</v>
+        <v>39.03946696716338</v>
       </c>
       <c r="C18">
-        <v>22.94754755805191</v>
+        <v>23.19166067319596</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.14274584571928</v>
+        <v>4.990971806391625</v>
       </c>
       <c r="F18">
-        <v>79.21140446256277</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>1.968095984398312</v>
+        <v>2.027126391063963</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>44.24796519166237</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.46820992815914</v>
+        <v>8.945269457342786</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>15.31024292205415</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.63109469778884</v>
+        <v>38.84407413882141</v>
       </c>
       <c r="C19">
-        <v>22.82022177404794</v>
+        <v>23.07114482198486</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.07245774583667</v>
+        <v>4.990967535752415</v>
       </c>
       <c r="F19">
-        <v>78.77536811096918</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>1.970037984820191</v>
+        <v>2.028730388208312</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>44.01472618661927</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.40062278109244</v>
+        <v>8.916773451394782</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>15.31448838978905</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.4262916925567</v>
+        <v>39.72158525668853</v>
       </c>
       <c r="C20">
-        <v>23.3934561629164</v>
+        <v>23.61223635791607</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.39121012498457</v>
+        <v>4.991143268911697</v>
       </c>
       <c r="F20">
-        <v>80.73989812049805</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>1.961247099105374</v>
+        <v>2.021495815372432</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>45.06738711909151</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.70760285366169</v>
+        <v>9.045395631033598</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>15.29628988462784</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.11564632530168</v>
+        <v>42.64448665390772</v>
       </c>
       <c r="C21">
-        <v>25.33398518833914</v>
+        <v>25.41258385424024</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.51636626715878</v>
+        <v>4.994758009748092</v>
       </c>
       <c r="F21">
-        <v>87.41874962933652</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>1.930570329051775</v>
+        <v>1.996813341468561</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>48.68102417131676</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.80082486526497</v>
+        <v>9.48508178394958</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>15.25253579988678</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.90695970727834</v>
+        <v>44.54389325904026</v>
       </c>
       <c r="C22">
-        <v>26.62837344481934</v>
+        <v>26.5817738921866</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.30969618342513</v>
+        <v>4.999782386175912</v>
       </c>
       <c r="F22">
-        <v>91.89994445343343</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>1.909311887054831</v>
+        <v>1.980279574562233</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>51.13598264770266</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.58033587579237</v>
+        <v>9.77919420201829</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>15.2390036998999</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.94621780921609</v>
+        <v>43.53055010537968</v>
       </c>
       <c r="C23">
-        <v>25.93394964987575</v>
+        <v>25.95802328400987</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.87958326087006</v>
+        <v>4.996827057816949</v>
       </c>
       <c r="F23">
-        <v>89.49307504349936</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>1.920796620633394</v>
+        <v>1.989149640859821</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>49.81435486356119</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.15684814205435</v>
+        <v>9.621516620968656</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>15.24469685455251</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.38259976673255</v>
+        <v>39.67351006927966</v>
       </c>
       <c r="C24">
-        <v>23.36195405371157</v>
+        <v>23.58260145727928</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.37353783645791</v>
+        <v>4.99112313754589</v>
       </c>
       <c r="F24">
-        <v>80.63184031444214</v>
+        <v>36.85121910575583</v>
       </c>
       <c r="G24">
-        <v>1.961733396382914</v>
+        <v>2.021894239170454</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>45.00936469764113</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.69055130781279</v>
+        <v>9.038306381396595</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>15.2972286114846</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.56516004810673</v>
+        <v>35.41853549886747</v>
       </c>
       <c r="C25">
-        <v>20.61183667834475</v>
+        <v>20.95414684674344</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.89778337851231</v>
+        <v>4.993991156321666</v>
       </c>
       <c r="F25">
-        <v>71.24140568510609</v>
+        <v>33.19272459127059</v>
       </c>
       <c r="G25">
-        <v>2.002762463541475</v>
+        <v>2.05622176579263</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>40.02161698992139</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.27994636528507</v>
+        <v>8.43166548711085</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>15.40591962585184</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>32.34639102509501</v>
+        <v>23.50615065516893</v>
       </c>
       <c r="C2">
-        <v>18.93259533808567</v>
+        <v>19.36058297535665</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.001937648424319</v>
+        <v>30.43799248325571</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.081268480842494</v>
+        <v>33.06877563333141</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.311744909990439</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.02717088220758</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.999652175436522</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.51988451938765</v>
+        <v>10.23372101944314</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>30.2445979188498</v>
+        <v>21.91127950569237</v>
       </c>
       <c r="C3">
-        <v>17.49771410435849</v>
+        <v>18.05338489720553</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.010290033953075</v>
+        <v>28.16912614266283</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.09833566229683</v>
+        <v>30.86452035423872</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.047093886273407</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.8527753983024</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.714846529654869</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.61419736475824</v>
+        <v>10.45805714046162</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.92441639547804</v>
+        <v>20.87998276864717</v>
       </c>
       <c r="C4">
-        <v>16.5817548436696</v>
+        <v>17.2110516383134</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.016713476803495</v>
+        <v>26.71696526946114</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.108923429390602</v>
+        <v>29.49644543420338</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.896255469799669</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.77085291738415</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.543759453932012</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.67944177604048</v>
+        <v>10.59845503310878</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.37897629687881</v>
+        <v>20.44647953106827</v>
       </c>
       <c r="C5">
-        <v>16.19933203723089</v>
+        <v>16.85766541556864</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.019635869324012</v>
+        <v>26.10983339955817</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.113273370433046</v>
+        <v>28.93558434393021</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.837647468777019</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.74342113868873</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.47498963889866</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.70773401290676</v>
+        <v>10.65637212512537</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>28.28795954697061</v>
+        <v>20.37369266373678</v>
       </c>
       <c r="C6">
-        <v>16.1352675468417</v>
+        <v>16.79837038446681</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.020138990404096</v>
+        <v>26.00807752992464</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.113998027050477</v>
+        <v>28.84226378207175</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.828086171220487</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.73921439266325</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.463628008051927</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.71253111343252</v>
+        <v>10.66603274797689</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>28.91709045490687</v>
+        <v>20.87419020070674</v>
       </c>
       <c r="C7">
-        <v>16.57663491619335</v>
+        <v>17.20632693257319</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.016751680324978</v>
+        <v>26.70884013108073</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.108981941158437</v>
+        <v>29.48889451025386</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.895453581181831</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.77045936738344</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.542828148308694</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.67981660523762</v>
+        <v>10.59923322692757</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31.62780109591728</v>
+        <v>22.96694075265426</v>
       </c>
       <c r="C8">
-        <v>18.44485655033268</v>
+        <v>18.91800911459439</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.004535106842563</v>
+        <v>29.6676240206979</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.087135917101832</v>
+        <v>32.31193036724252</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.218031714158219</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.96159839638456</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.900659536028935</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.55079080831325</v>
+        <v>10.31054362888365</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>36.86836229708611</v>
+        <v>26.66588052702922</v>
       </c>
       <c r="C9">
-        <v>21.85124947536114</v>
+        <v>21.9672513918259</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4.992011979929912</v>
+        <v>35.02698656647066</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>2.044729998453148</v>
+        <v>37.90346520854585</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.946250508704944</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.55180770118222</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.633510668580643</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.36340916897771</v>
+        <v>9.763735243232381</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40.72554708544634</v>
+        <v>29.14927221441717</v>
       </c>
       <c r="C10">
-        <v>24.23089913088904</v>
+        <v>24.03284243443884</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.991847913612204</v>
+        <v>38.73589221273291</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>2.013120123740011</v>
+        <v>41.94475247483042</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.5443176190563</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.1371129570555</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.194532155746863</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.27826778330218</v>
+        <v>9.371142111070979</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>42.45590562708326</v>
+        <v>30.23146870517504</v>
       </c>
       <c r="C11">
-        <v>25.29648728443421</v>
+        <v>24.93803745163535</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.99437805803451</v>
+        <v>40.38461198825411</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>1.99843339436064</v>
+        <v>43.76625459697174</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.85195924720989</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.44046680213255</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.456224068376979</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.25454052629057</v>
+        <v>9.19389246009281</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>43.10912028460462</v>
+        <v>30.63475540550561</v>
       </c>
       <c r="C12">
-        <v>25.69860944105356</v>
+        <v>25.27619832639511</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.995784134938097</v>
+        <v>41.00452025756442</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>1.992805323257167</v>
+        <v>44.45435376481497</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.01936896670889</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.61094400812123</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.556453803236368</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.24809776178624</v>
+        <v>9.126908307740999</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>42.96850186525313</v>
+        <v>30.54818476630099</v>
       </c>
       <c r="C13">
-        <v>25.61204793020252</v>
+        <v>25.20356869488255</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4.995459989522802</v>
+        <v>40.87118902933244</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.994020801637181</v>
+        <v>44.3062188287082</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.98331793666043</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.56301765466647</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.534813174653879</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.24936520355409</v>
+        <v>9.141329431711521</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>42.50967702073025</v>
+        <v>30.2647760017247</v>
       </c>
       <c r="C14">
-        <v>25.32959118641007</v>
+        <v>24.96594854788049</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4.994484263061373</v>
+        <v>40.43569388097594</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>1.997971849925821</v>
+        <v>43.82289313572784</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.86573410983835</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.45026872902442</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.464445918339987</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.25395701565663</v>
+        <v>9.188379241609688</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>42.22841846979867</v>
+        <v>30.09034127828334</v>
       </c>
       <c r="C15">
-        <v>25.15643194790865</v>
+        <v>24.8198090535911</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.993947475551089</v>
+        <v>40.1684002872674</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.000382563988476</v>
+        <v>43.52665182280571</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.79369621511313</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.39924299941584</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.421498641104408</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.25711357761161</v>
+        <v>9.21721461014323</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.61209148162293</v>
+        <v>29.07761794500509</v>
       </c>
       <c r="C16">
-        <v>24.16100347941059</v>
+        <v>23.97302015851676</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.991740797942019</v>
+        <v>38.62746055894387</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.014071959161714</v>
+        <v>41.82543369339131</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.52587032672034</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.11806342890256</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.177575961562995</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.28015134985682</v>
+        <v>9.382748083824852</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>39.61522923940244</v>
+        <v>28.44438621277915</v>
       </c>
       <c r="C17">
-        <v>23.54667416432688</v>
+        <v>23.44494198337409</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.991100379568303</v>
+        <v>37.67301844287995</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.022376919204186</v>
+        <v>40.77794306242816</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.36589372903852</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12.95530917235121</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.029718717802121</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.29837576731994</v>
+        <v>9.484602675900792</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>39.03946696716338</v>
+        <v>28.07567487422274</v>
       </c>
       <c r="C18">
-        <v>23.19166067319596</v>
+        <v>23.13793941151521</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.990971806391625</v>
+        <v>37.12035039209123</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.027126391063963</v>
+        <v>40.17380549436584</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.27528099716926</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.86516804956428</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.945269457342786</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.31024292205415</v>
+        <v>9.543316816371222</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>38.84407413882141</v>
+        <v>27.95005497797301</v>
       </c>
       <c r="C19">
-        <v>23.07114482198486</v>
+        <v>23.03342326012805</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.990967535752415</v>
+        <v>36.93256058325434</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>2.028730388208312</v>
+        <v>39.96895176121359</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.24483815103671</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>12.8352337314321</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.916773451394782</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.31448838978905</v>
+        <v>9.563220402982671</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>39.72158525668853</v>
+        <v>28.51225770528221</v>
       </c>
       <c r="C20">
-        <v>23.61223635791607</v>
+        <v>23.50149254876161</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4.991143268911697</v>
+        <v>37.77499576179977</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>2.021495815372432</v>
+        <v>40.88961597181255</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.38277756460823</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>12.97227299484565</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.045395631033598</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.29628988462784</v>
+        <v>9.473747013437466</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>42.64448665390772</v>
+        <v>30.34819417641699</v>
       </c>
       <c r="C21">
-        <v>25.41258385424024</v>
+        <v>25.03586567941911</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>4.994758009748092</v>
+        <v>40.56371968925866</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>1.996813341468561</v>
+        <v>43.96489561001101</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.90027394526527</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.47493957437187</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.48508178394958</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.25253579988678</v>
+        <v>9.174556345600074</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>44.54389325904026</v>
+        <v>31.51027628395738</v>
       </c>
       <c r="C22">
-        <v>26.5817738921866</v>
+        <v>26.01195564191888</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4.999782386175912</v>
+        <v>42.36117751950809</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>1.980279574562233</v>
+        <v>45.96558205950775</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.38747428362346</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.1021223553442</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.77919420201829</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.2390036998999</v>
+        <v>8.979783187709758</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>43.53055010537968</v>
+        <v>30.89339421916229</v>
       </c>
       <c r="C23">
-        <v>25.95802328400987</v>
+        <v>25.49331561169468</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>4.996827057816949</v>
+        <v>41.40372092891108</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>1.989149640859821</v>
+        <v>44.8983086866143</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.12744728176088</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.75481745904903</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.621516620968656</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.24469685455251</v>
+        <v>9.08368734246673</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>39.67351006927966</v>
+        <v>28.48158753517189</v>
       </c>
       <c r="C24">
-        <v>23.58260145727928</v>
+        <v>23.4759366636301</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4.99112313754589</v>
+        <v>37.72890418902566</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.021894239170454</v>
+        <v>40.83913468874965</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.3751401565231</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12.96459299736312</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.038306381396595</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.2972286114846</v>
+        <v>9.478654366556851</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>35.41853549886747</v>
+        <v>25.70735832049802</v>
       </c>
       <c r="C25">
-        <v>20.95414684674344</v>
+        <v>21.17406019498977</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.993991156321666</v>
+        <v>33.62061359688609</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.05622176579263</v>
+        <v>36.396265210008</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>9.738550823367675</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.36692252140043</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.43166548711085</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.40591962585184</v>
+        <v>9.90985357541267</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.50615065516893</v>
+        <v>13.41359105506008</v>
       </c>
       <c r="C2">
-        <v>19.36058297535665</v>
+        <v>11.17353494206511</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.43799248325571</v>
+        <v>16.61294039418812</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>33.06877563333141</v>
+        <v>24.76782681396966</v>
       </c>
       <c r="H2">
-        <v>9.311744909990439</v>
+        <v>12.32400480665108</v>
       </c>
       <c r="I2">
-        <v>12.02717088220758</v>
+        <v>16.74493826921271</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.23372101944314</v>
+        <v>15.4909256585513</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.91127950569237</v>
+        <v>12.68730325286515</v>
       </c>
       <c r="C3">
-        <v>18.05338489720553</v>
+        <v>10.50790680757608</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.16912614266283</v>
+        <v>15.66005130527435</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>30.86452035423872</v>
+        <v>24.21362577844373</v>
       </c>
       <c r="H3">
-        <v>9.047093886273407</v>
+        <v>12.33782069623732</v>
       </c>
       <c r="I3">
-        <v>11.8527753983024</v>
+        <v>16.81553792977347</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.45805714046162</v>
+        <v>15.55429657686394</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.87998276864717</v>
+        <v>12.2213536507598</v>
       </c>
       <c r="C4">
-        <v>17.2110516383134</v>
+        <v>10.07542857226813</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.71696526946114</v>
+        <v>15.04982640551767</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>29.49644543420338</v>
+        <v>23.88204491574791</v>
       </c>
       <c r="H4">
-        <v>8.896255469799669</v>
+        <v>12.35038539427714</v>
       </c>
       <c r="I4">
-        <v>11.77085291738415</v>
+        <v>16.86520336765764</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.59845503310878</v>
+        <v>15.59514497726952</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.44647953106827</v>
+        <v>12.02664687339946</v>
       </c>
       <c r="C5">
-        <v>16.85766541556864</v>
+        <v>9.893243026788587</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.10983339955817</v>
+        <v>14.79509799898178</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>28.93558434393021</v>
+        <v>23.74935583636965</v>
       </c>
       <c r="H5">
-        <v>8.837647468777019</v>
+        <v>12.35652588599671</v>
       </c>
       <c r="I5">
-        <v>11.74342113868873</v>
+        <v>16.88701623821021</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10.65637212512537</v>
+        <v>15.61228001260857</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.37369266373678</v>
+        <v>11.99403099497241</v>
       </c>
       <c r="C6">
-        <v>16.79837038446681</v>
+        <v>9.862633227741521</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.00807752992464</v>
+        <v>14.75244357188001</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>28.84226378207175</v>
+        <v>23.72747692576904</v>
       </c>
       <c r="H6">
-        <v>8.828086171220487</v>
+        <v>12.35760694218565</v>
       </c>
       <c r="I6">
-        <v>11.73921439266325</v>
+        <v>16.89073286850019</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10.66603274797689</v>
+        <v>15.61515485134995</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.87419020070674</v>
+        <v>12.21874702247058</v>
       </c>
       <c r="C7">
-        <v>17.20632693257319</v>
+        <v>10.07299558317074</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.70884013108073</v>
+        <v>15.04641518115324</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>29.48889451025386</v>
+        <v>23.88024525363028</v>
       </c>
       <c r="H7">
-        <v>8.895453581181831</v>
+        <v>12.35046408465434</v>
       </c>
       <c r="I7">
-        <v>11.77045936738344</v>
+        <v>16.86549119112882</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.59923322692757</v>
+        <v>15.59537408446849</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.96694075265426</v>
+        <v>13.16742915302498</v>
       </c>
       <c r="C8">
-        <v>18.91800911459439</v>
+        <v>10.948978132409</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.6676240206979</v>
+        <v>16.28974773205969</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>32.31193036724252</v>
+        <v>24.57508037422891</v>
       </c>
       <c r="H8">
-        <v>9.218031714158219</v>
+        <v>12.32791788233084</v>
       </c>
       <c r="I8">
-        <v>11.96159839638456</v>
+        <v>16.76796122638797</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.31054362888365</v>
+        <v>15.5123745696632</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.66588052702922</v>
+        <v>14.86193313754198</v>
       </c>
       <c r="C9">
-        <v>21.9672513918259</v>
+        <v>12.47716869927993</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.02698656647066</v>
+        <v>18.64470577457221</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>37.90346520854585</v>
+        <v>25.99583360599886</v>
       </c>
       <c r="H9">
-        <v>9.946250508704944</v>
+        <v>12.31633645808192</v>
       </c>
       <c r="I9">
-        <v>12.55180770118222</v>
+        <v>16.6274680187171</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.763735243232381</v>
+        <v>15.36492251163233</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.14927221441717</v>
+        <v>16.00557053111997</v>
       </c>
       <c r="C10">
-        <v>24.03284243443884</v>
+        <v>13.48365934277577</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.73589221273291</v>
+        <v>20.31202941339512</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>41.94475247483042</v>
+        <v>27.06075736864512</v>
       </c>
       <c r="H10">
-        <v>10.5443176190563</v>
+        <v>12.32801476608249</v>
       </c>
       <c r="I10">
-        <v>13.1371129570555</v>
+        <v>16.55604632674722</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.371142111070979</v>
+        <v>15.26582434812521</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.23146870517504</v>
+        <v>16.55283222292811</v>
       </c>
       <c r="C11">
-        <v>24.93803745163535</v>
+        <v>13.91626621163644</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.38461198825411</v>
+        <v>21.02828792452709</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>43.76625459697174</v>
+        <v>27.5468813053567</v>
       </c>
       <c r="H11">
-        <v>10.85195924720989</v>
+        <v>12.33775958938403</v>
       </c>
       <c r="I11">
-        <v>13.44046680213255</v>
+        <v>16.53063333552173</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.19389246009281</v>
+        <v>15.22272667550269</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.63475540550561</v>
+        <v>16.75525086228024</v>
       </c>
       <c r="C12">
-        <v>25.27619832639511</v>
+        <v>14.07645452526466</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.00452025756442</v>
+        <v>21.29348514200089</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>44.45435376481497</v>
+        <v>27.73097687056201</v>
       </c>
       <c r="H12">
-        <v>11.01936896670889</v>
+        <v>12.34208983227784</v>
       </c>
       <c r="I12">
-        <v>13.61094400812123</v>
+        <v>16.52204128725063</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.126908307740999</v>
+        <v>15.20669028197482</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.54818476630099</v>
+        <v>16.7118702718256</v>
       </c>
       <c r="C13">
-        <v>25.20356869488255</v>
+        <v>14.04211653119122</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.87118902933244</v>
+        <v>21.23663798079229</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>44.3062188287082</v>
+        <v>27.69133165687326</v>
       </c>
       <c r="H13">
-        <v>10.98331793666043</v>
+        <v>12.3411287334358</v>
       </c>
       <c r="I13">
-        <v>13.56301765466647</v>
+        <v>16.52384566035787</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.141329431711521</v>
+        <v>15.21013140685796</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.2647760017247</v>
+        <v>16.56958174143848</v>
       </c>
       <c r="C14">
-        <v>24.96594854788049</v>
+        <v>13.92951774698908</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.43569388097594</v>
+        <v>21.05022658966803</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>43.82289313572784</v>
+        <v>27.56202801836584</v>
       </c>
       <c r="H14">
-        <v>10.86573410983835</v>
+        <v>12.33810299979665</v>
       </c>
       <c r="I14">
-        <v>13.45026872902442</v>
+        <v>16.52990571775512</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.188379241609688</v>
+        <v>15.22140167232325</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.09034127828334</v>
+        <v>16.48179922527373</v>
       </c>
       <c r="C15">
-        <v>24.8198090535911</v>
+        <v>13.86007501148601</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.1684002872674</v>
+        <v>20.93525945222925</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>43.52665182280571</v>
+        <v>27.4828205853746</v>
       </c>
       <c r="H15">
-        <v>10.79369621511313</v>
+        <v>12.33633307717945</v>
       </c>
       <c r="I15">
-        <v>13.39924299941584</v>
+        <v>16.53375237819141</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.21721461014323</v>
+        <v>15.22834195016556</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.07761794500509</v>
+        <v>15.9691302789828</v>
       </c>
       <c r="C16">
-        <v>23.97302015851676</v>
+        <v>13.45487932253697</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.62746055894387</v>
+        <v>20.26437385127669</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>41.82543369339131</v>
+        <v>27.02900187585822</v>
       </c>
       <c r="H16">
-        <v>10.52587032672034</v>
+        <v>12.32746735892917</v>
       </c>
       <c r="I16">
-        <v>13.11806342890256</v>
+        <v>16.55785071197146</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.382748083824852</v>
+        <v>15.26868066236543</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.44438621277915</v>
+        <v>15.67649844044708</v>
       </c>
       <c r="C17">
-        <v>23.44494198337409</v>
+        <v>13.19983682533159</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.67301844287995</v>
+        <v>19.84202070029046</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>40.77794306242816</v>
+        <v>26.75086189257885</v>
       </c>
       <c r="H17">
-        <v>10.36589372903852</v>
+        <v>12.32316592984249</v>
       </c>
       <c r="I17">
-        <v>12.95530917235121</v>
+        <v>16.57445674084126</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.484602675900792</v>
+        <v>15.29393398437594</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.07567487422274</v>
+        <v>15.50789264595694</v>
       </c>
       <c r="C18">
-        <v>23.13793941151521</v>
+        <v>13.05076613067331</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.12035039209123</v>
+        <v>19.59511867536005</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>40.17380549436584</v>
+        <v>26.59105481944972</v>
       </c>
       <c r="H18">
-        <v>10.27528099716926</v>
+        <v>12.32110893549742</v>
       </c>
       <c r="I18">
-        <v>12.86516804956428</v>
+        <v>16.58467343829566</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.543316816371222</v>
+        <v>15.30864571492588</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.95005497797301</v>
+        <v>15.45040980534519</v>
       </c>
       <c r="C19">
-        <v>23.03342326012805</v>
+        <v>12.99988514433148</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.93256058325434</v>
+        <v>19.51083796302969</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>39.96895176121359</v>
+        <v>26.53698362569691</v>
       </c>
       <c r="H19">
-        <v>10.24483815103671</v>
+        <v>12.32048400971516</v>
       </c>
       <c r="I19">
-        <v>12.8352337314321</v>
+        <v>16.58824648652764</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.563220402982671</v>
+        <v>15.31365895892703</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.51225770528221</v>
+        <v>15.70751499291993</v>
       </c>
       <c r="C20">
-        <v>23.50149254876161</v>
+        <v>13.22723255120349</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.77499576179977</v>
+        <v>19.88739211646664</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>40.88961597181255</v>
+        <v>26.78045431451113</v>
       </c>
       <c r="H20">
-        <v>10.38277756460823</v>
+        <v>12.3235806367706</v>
       </c>
       <c r="I20">
-        <v>12.97227299484565</v>
+        <v>16.57262003948435</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.473747013437466</v>
+        <v>15.29122641353905</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.34819417641699</v>
+        <v>16.61150589014245</v>
       </c>
       <c r="C21">
-        <v>25.03586567941911</v>
+        <v>13.96268925019546</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.56371968925866</v>
+        <v>21.10514361662004</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>43.96489561001101</v>
+        <v>27.60000911430446</v>
       </c>
       <c r="H21">
-        <v>10.90027394526527</v>
+        <v>12.33897434127075</v>
       </c>
       <c r="I21">
-        <v>13.47493957437187</v>
+        <v>16.52809763706241</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.174556345600074</v>
+        <v>15.21808363147807</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.51027628395738</v>
+        <v>17.19174447285765</v>
       </c>
       <c r="C22">
-        <v>26.01195564191888</v>
+        <v>14.42219370738832</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.36117751950809</v>
+        <v>21.86585855241529</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>45.96558205950775</v>
+        <v>28.13560140866177</v>
       </c>
       <c r="H22">
-        <v>11.38747428362346</v>
+        <v>12.35276667652091</v>
       </c>
       <c r="I22">
-        <v>14.1021223553442</v>
+        <v>16.50501678644097</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.979783187709758</v>
+        <v>15.17193396606098</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.89339421916229</v>
+        <v>16.88462078595725</v>
       </c>
       <c r="C23">
-        <v>25.49331561169468</v>
+        <v>14.17888259020749</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.40372092891108</v>
+        <v>21.46305554971618</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154475857</v>
       </c>
       <c r="G23">
-        <v>44.8983086866143</v>
+        <v>27.84982195107749</v>
       </c>
       <c r="H23">
-        <v>11.12744728176088</v>
+        <v>12.34506329587878</v>
       </c>
       <c r="I23">
-        <v>13.75481745904903</v>
+        <v>16.51678055323488</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.08368734246673</v>
+        <v>15.19641406033126</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.48158753517189</v>
+        <v>15.69349986023883</v>
       </c>
       <c r="C24">
-        <v>23.4759366636301</v>
+        <v>13.21485455423471</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.72890418902566</v>
+        <v>19.86689242814381</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>40.83913468874965</v>
+        <v>26.76707525342711</v>
       </c>
       <c r="H24">
-        <v>10.3751401565231</v>
+        <v>12.32339185226984</v>
       </c>
       <c r="I24">
-        <v>12.96459299736312</v>
+        <v>16.57344832717891</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.478654366556851</v>
+        <v>15.29244990419196</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.70735832049802</v>
+        <v>14.42215365624403</v>
       </c>
       <c r="C25">
-        <v>21.17406019498977</v>
+        <v>12.08414633823331</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.62061359688609</v>
+        <v>17.99302267873476</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295691</v>
       </c>
       <c r="G25">
-        <v>36.396265210008</v>
+        <v>25.6067572093453</v>
       </c>
       <c r="H25">
-        <v>9.738550823367675</v>
+        <v>12.31594305105402</v>
       </c>
       <c r="I25">
-        <v>12.36692252140043</v>
+        <v>16.6599510726421</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.90985357541267</v>
+        <v>15.40318345952331</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.41359105506008</v>
+        <v>23.506150655169</v>
       </c>
       <c r="C2">
-        <v>11.17353494206511</v>
+        <v>19.36058297535669</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.61294039418812</v>
+        <v>30.43799248325574</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>24.76782681396966</v>
+        <v>33.06877563333154</v>
       </c>
       <c r="H2">
-        <v>12.32400480665108</v>
+        <v>9.311744909990423</v>
       </c>
       <c r="I2">
-        <v>16.74493826921271</v>
+        <v>12.02717088220757</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.4909256585513</v>
+        <v>10.23372101944311</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.68730325286515</v>
+        <v>21.91127950569241</v>
       </c>
       <c r="C3">
-        <v>10.50790680757608</v>
+        <v>18.05338489720545</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.66005130527435</v>
+        <v>28.16912614266283</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>24.21362577844373</v>
+        <v>30.86452035423874</v>
       </c>
       <c r="H3">
-        <v>12.33782069623732</v>
+        <v>9.047093886273419</v>
       </c>
       <c r="I3">
-        <v>16.81553792977347</v>
+        <v>11.85277539830241</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.55429657686394</v>
+        <v>10.45805714046166</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.2213536507598</v>
+        <v>20.87998276864719</v>
       </c>
       <c r="C4">
-        <v>10.07542857226813</v>
+        <v>17.2110516383135</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.04982640551767</v>
+        <v>26.71696526946112</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>23.88204491574791</v>
+        <v>29.49644543420348</v>
       </c>
       <c r="H4">
-        <v>12.35038539427714</v>
+        <v>8.896255469799684</v>
       </c>
       <c r="I4">
-        <v>16.86520336765764</v>
+        <v>11.77085291738416</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.59514497726952</v>
+        <v>10.59845503310871</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.02664687339946</v>
+        <v>20.44647953106826</v>
       </c>
       <c r="C5">
-        <v>9.893243026788587</v>
+        <v>16.85766541556862</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.79509799898178</v>
+        <v>26.10983339955828</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>23.74935583636965</v>
+        <v>28.93558434393042</v>
       </c>
       <c r="H5">
-        <v>12.35652588599671</v>
+        <v>8.83764746877698</v>
       </c>
       <c r="I5">
-        <v>16.88701623821021</v>
+        <v>11.74342113868886</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.61228001260857</v>
+        <v>10.65637212512543</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.99403099497241</v>
+        <v>20.37369266373681</v>
       </c>
       <c r="C6">
-        <v>9.862633227741521</v>
+        <v>16.79837038446692</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.75244357188001</v>
+        <v>26.00807752992463</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>23.72747692576904</v>
+        <v>28.84226378207179</v>
       </c>
       <c r="H6">
-        <v>12.35760694218565</v>
+        <v>8.828086171220463</v>
       </c>
       <c r="I6">
-        <v>16.89073286850019</v>
+        <v>11.73921439266319</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.61515485134995</v>
+        <v>10.66603274797679</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.21874702247058</v>
+        <v>20.87419020070686</v>
       </c>
       <c r="C7">
-        <v>10.07299558317074</v>
+        <v>17.20632693257333</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.04641518115324</v>
+        <v>26.70884013108082</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>23.88024525363028</v>
+        <v>29.48889451025397</v>
       </c>
       <c r="H7">
-        <v>12.35046408465434</v>
+        <v>8.895453581181762</v>
       </c>
       <c r="I7">
-        <v>16.86549119112882</v>
+        <v>11.7704593673833</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.59537408446849</v>
+        <v>10.59923322692743</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.16742915302498</v>
+        <v>22.96694075265432</v>
       </c>
       <c r="C8">
-        <v>10.948978132409</v>
+        <v>18.9180091145942</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.28974773205969</v>
+        <v>29.66762402069784</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>24.57508037422891</v>
+        <v>32.31193036724256</v>
       </c>
       <c r="H8">
-        <v>12.32791788233084</v>
+        <v>9.218031714158235</v>
       </c>
       <c r="I8">
-        <v>16.76796122638797</v>
+        <v>11.96159839638456</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.5123745696632</v>
+        <v>10.31054362888368</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.86193313754198</v>
+        <v>26.66588052702922</v>
       </c>
       <c r="C9">
-        <v>12.47716869927993</v>
+        <v>21.96725139182582</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.64470577457221</v>
+        <v>35.02698656647068</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>25.99583360599886</v>
+        <v>37.90346520854586</v>
       </c>
       <c r="H9">
-        <v>12.31633645808192</v>
+        <v>9.946250508705001</v>
       </c>
       <c r="I9">
-        <v>16.6274680187171</v>
+        <v>12.55180770118229</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.36492251163233</v>
+        <v>9.763735243232439</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.00557053111997</v>
+        <v>29.14927221441723</v>
       </c>
       <c r="C10">
-        <v>13.48365934277577</v>
+        <v>24.03284243443882</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.31202941339512</v>
+        <v>38.73589221273294</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>27.06075736864512</v>
+        <v>41.94475247483053</v>
       </c>
       <c r="H10">
-        <v>12.32801476608249</v>
+        <v>10.54431761905632</v>
       </c>
       <c r="I10">
-        <v>16.55604632674722</v>
+        <v>13.13711295705552</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.26582434812521</v>
+        <v>9.371142111070974</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.55283222292811</v>
+        <v>30.23146870517513</v>
       </c>
       <c r="C11">
-        <v>13.91626621163644</v>
+        <v>24.93803745163527</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.02828792452709</v>
+        <v>40.38461198825412</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>27.5468813053567</v>
+        <v>43.76625459697194</v>
       </c>
       <c r="H11">
-        <v>12.33775958938403</v>
+        <v>10.85195924720992</v>
       </c>
       <c r="I11">
-        <v>16.53063333552173</v>
+        <v>13.44046680213257</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.22272667550269</v>
+        <v>9.193892460092737</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.75525086228024</v>
+        <v>30.63475540550568</v>
       </c>
       <c r="C12">
-        <v>14.07645452526466</v>
+        <v>25.27619832639517</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.29348514200089</v>
+        <v>41.00452025756434</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>27.73097687056201</v>
+        <v>44.45435376481499</v>
       </c>
       <c r="H12">
-        <v>12.34208983227784</v>
+        <v>11.01936896670892</v>
       </c>
       <c r="I12">
-        <v>16.52204128725063</v>
+        <v>13.61094400812127</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.20669028197482</v>
+        <v>9.126908307741028</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.7118702718256</v>
+        <v>30.5481847663011</v>
       </c>
       <c r="C13">
-        <v>14.04211653119122</v>
+        <v>25.20356869488242</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.23663798079229</v>
+        <v>40.87118902933251</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>27.69133165687326</v>
+        <v>44.30621882870837</v>
       </c>
       <c r="H13">
-        <v>12.3411287334358</v>
+        <v>10.98331793666047</v>
       </c>
       <c r="I13">
-        <v>16.52384566035787</v>
+        <v>13.56301765466656</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.21013140685796</v>
+        <v>9.141329431711428</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.56958174143848</v>
+        <v>30.26477600172478</v>
       </c>
       <c r="C14">
-        <v>13.92951774698908</v>
+        <v>24.96594854788055</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.05022658966803</v>
+        <v>40.43569388097593</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>27.56202801836584</v>
+        <v>43.82289313572799</v>
       </c>
       <c r="H14">
-        <v>12.33810299979665</v>
+        <v>10.86573410983838</v>
       </c>
       <c r="I14">
-        <v>16.52990571775512</v>
+        <v>13.45026872902446</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.22140167232325</v>
+        <v>9.188379241609677</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.48179922527373</v>
+        <v>30.09034127828335</v>
       </c>
       <c r="C15">
-        <v>13.86007501148601</v>
+        <v>24.81980905359108</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.93525945222925</v>
+        <v>40.1684002872675</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>27.4828205853746</v>
+        <v>43.52665182280578</v>
       </c>
       <c r="H15">
-        <v>12.33633307717945</v>
+        <v>10.79369621511313</v>
       </c>
       <c r="I15">
-        <v>16.53375237819141</v>
+        <v>13.39924299941588</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.22834195016556</v>
+        <v>9.217214610143227</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.9691302789828</v>
+        <v>29.07761794500518</v>
       </c>
       <c r="C16">
-        <v>13.45487932253697</v>
+        <v>23.97302015851672</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.26437385127669</v>
+        <v>38.62746055894388</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>27.02900187585822</v>
+        <v>41.82543369339151</v>
       </c>
       <c r="H16">
-        <v>12.32746735892917</v>
+        <v>10.52587032672032</v>
       </c>
       <c r="I16">
-        <v>16.55785071197146</v>
+        <v>13.11806342890254</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.26868066236543</v>
+        <v>9.382748083824783</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.67649844044708</v>
+        <v>28.44438621277923</v>
       </c>
       <c r="C17">
-        <v>13.19983682533159</v>
+        <v>23.444941983374</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.84202070029046</v>
+        <v>37.67301844288003</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>26.75086189257885</v>
+        <v>40.77794306242821</v>
       </c>
       <c r="H17">
-        <v>12.32316592984249</v>
+        <v>10.36589372903853</v>
       </c>
       <c r="I17">
-        <v>16.57445674084126</v>
+        <v>12.95530917235121</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.29393398437594</v>
+        <v>9.484602675900794</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.50789264595694</v>
+        <v>28.07567487422276</v>
       </c>
       <c r="C18">
-        <v>13.05076613067331</v>
+        <v>23.13793941151531</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.59511867536005</v>
+        <v>37.12035039209125</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>26.59105481944972</v>
+        <v>40.17380549436596</v>
       </c>
       <c r="H18">
-        <v>12.32110893549742</v>
+        <v>10.27528099716926</v>
       </c>
       <c r="I18">
-        <v>16.58467343829566</v>
+        <v>12.86516804956427</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.30864571492588</v>
+        <v>9.543316816371153</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.45040980534519</v>
+        <v>27.95005497797299</v>
       </c>
       <c r="C19">
-        <v>12.99988514433148</v>
+        <v>23.03342326012811</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.51083796302969</v>
+        <v>36.9325605832543</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>26.53698362569691</v>
+        <v>39.96895176121354</v>
       </c>
       <c r="H19">
-        <v>12.32048400971516</v>
+        <v>10.24483815103671</v>
       </c>
       <c r="I19">
-        <v>16.58824648652764</v>
+        <v>12.83523373143216</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.31365895892703</v>
+        <v>9.563220402982697</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.70751499291993</v>
+        <v>28.51225770528223</v>
       </c>
       <c r="C20">
-        <v>13.22723255120349</v>
+        <v>23.50149254876175</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.88739211646664</v>
+        <v>37.77499576179974</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>26.78045431451113</v>
+        <v>40.88961597181245</v>
       </c>
       <c r="H20">
-        <v>12.3235806367706</v>
+        <v>10.3827775646082</v>
       </c>
       <c r="I20">
-        <v>16.57262003948435</v>
+        <v>12.97227299484564</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.29122641353905</v>
+        <v>9.473747013437507</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.61150589014245</v>
+        <v>30.34819417641703</v>
       </c>
       <c r="C21">
-        <v>13.96268925019546</v>
+        <v>25.03586567941923</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.10514361662004</v>
+        <v>40.56371968925868</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>27.60000911430446</v>
+        <v>43.96489561001108</v>
       </c>
       <c r="H21">
-        <v>12.33897434127075</v>
+        <v>10.90027394526531</v>
       </c>
       <c r="I21">
-        <v>16.52809763706241</v>
+        <v>13.47493957437193</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.21808363147807</v>
+        <v>9.174556345600092</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.19174447285765</v>
+        <v>31.51027628395745</v>
       </c>
       <c r="C22">
-        <v>14.42219370738832</v>
+        <v>26.01195564191892</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.86585855241529</v>
+        <v>42.36117751950803</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>28.13560140866177</v>
+        <v>45.96558205950794</v>
       </c>
       <c r="H22">
-        <v>12.35276667652091</v>
+        <v>11.3874742836235</v>
       </c>
       <c r="I22">
-        <v>16.50501678644097</v>
+        <v>14.10212235534429</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.17193396606098</v>
+        <v>8.979783187709655</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.88462078595725</v>
+        <v>30.89339421916227</v>
       </c>
       <c r="C23">
-        <v>14.17888259020749</v>
+        <v>25.49331561169461</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.46305554971618</v>
+        <v>41.40372092891105</v>
       </c>
       <c r="F23">
-        <v>21.82633154475857</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>27.84982195107749</v>
+        <v>44.89830868661431</v>
       </c>
       <c r="H23">
-        <v>12.34506329587878</v>
+        <v>11.12744728176088</v>
       </c>
       <c r="I23">
-        <v>16.51678055323488</v>
+        <v>13.75481745904906</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.19641406033126</v>
+        <v>9.0836873424667</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.69349986023883</v>
+        <v>28.48158753517182</v>
       </c>
       <c r="C24">
-        <v>13.21485455423471</v>
+        <v>23.47593666362997</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.86689242814381</v>
+        <v>37.72890418902561</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>26.76707525342711</v>
+        <v>40.83913468874955</v>
       </c>
       <c r="H24">
-        <v>12.32339185226984</v>
+        <v>10.37514015652315</v>
       </c>
       <c r="I24">
-        <v>16.57344832717891</v>
+        <v>12.96459299736321</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.29244990419196</v>
+        <v>9.478654366556974</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.42215365624403</v>
+        <v>25.70735832049798</v>
       </c>
       <c r="C25">
-        <v>12.08414633823331</v>
+        <v>21.17406019498994</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.99302267873476</v>
+        <v>33.62061359688616</v>
       </c>
       <c r="F25">
-        <v>18.34778573295691</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>25.6067572093453</v>
+        <v>36.39626521000809</v>
       </c>
       <c r="H25">
-        <v>12.31594305105402</v>
+        <v>9.738550823367689</v>
       </c>
       <c r="I25">
-        <v>16.6599510726421</v>
+        <v>12.3669225214005</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.40318345952331</v>
+        <v>9.909853575412663</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.506150655169</v>
+        <v>22.11154964270019</v>
       </c>
       <c r="C2">
-        <v>19.36058297535669</v>
+        <v>13.80945328236312</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.43799248325574</v>
+        <v>7.92884809534938</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>33.06877563333154</v>
+        <v>33.28640541340955</v>
       </c>
       <c r="H2">
-        <v>9.311744909990423</v>
+        <v>1.626273770965581</v>
       </c>
       <c r="I2">
-        <v>12.02717088220757</v>
+        <v>2.481643968862326</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.91043930182739</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.84109030450605</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.23372101944311</v>
+        <v>8.084476438916747</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.33652531967215</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.91127950569241</v>
+        <v>20.68653082252826</v>
       </c>
       <c r="C3">
-        <v>18.05338489720545</v>
+        <v>13.00173218782403</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>28.16912614266283</v>
+        <v>7.735372280685658</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>30.86452035423874</v>
+        <v>31.97180937280596</v>
       </c>
       <c r="H3">
-        <v>9.047093886273419</v>
+        <v>1.860250190797468</v>
       </c>
       <c r="I3">
-        <v>11.85277539830241</v>
+        <v>2.67596977054578</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.76056449112463</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.69603725219145</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.45805714046166</v>
+        <v>7.752946779284548</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.46385976996466</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.87998276864719</v>
+        <v>19.75843421123218</v>
       </c>
       <c r="C4">
-        <v>17.2110516383135</v>
+        <v>12.48246487190716</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.71696526946112</v>
+        <v>7.612861054790618</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>29.49644543420348</v>
+        <v>31.14866830924035</v>
       </c>
       <c r="H4">
-        <v>8.896255469799684</v>
+        <v>2.008841347293358</v>
       </c>
       <c r="I4">
-        <v>11.77085291738416</v>
+        <v>2.800194986260027</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.67078904419883</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.61012330661899</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>10.59845503310871</v>
+        <v>7.542220059159332</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.54388984623217</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.44647953106826</v>
+        <v>19.35909804946304</v>
       </c>
       <c r="C5">
-        <v>16.85766541556862</v>
+        <v>12.26986039005644</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>26.10983339955828</v>
+        <v>7.560826993838702</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>28.93558434393042</v>
+        <v>30.78535776086963</v>
       </c>
       <c r="H5">
-        <v>8.83764746877698</v>
+        <v>2.071113548149914</v>
       </c>
       <c r="I5">
-        <v>11.74342113868886</v>
+        <v>2.855187781419732</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.63030338951455</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.56697013814604</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>10.65637212512543</v>
+        <v>7.454793377831888</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.57733436588565</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.37369266373681</v>
+        <v>19.2824463520129</v>
       </c>
       <c r="C6">
-        <v>16.79837038446692</v>
+        <v>12.2401194437071</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>26.00807752992463</v>
+        <v>7.550701976606939</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>28.84226378207179</v>
+        <v>30.69512445211612</v>
       </c>
       <c r="H6">
-        <v>8.828086171220463</v>
+        <v>2.082089673524346</v>
       </c>
       <c r="I6">
-        <v>11.73921439266319</v>
+        <v>2.868414511268397</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.61814431987433</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.548955021676</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>10.66603274797679</v>
+        <v>7.440386259624561</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.58337400074255</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.87419020070686</v>
+        <v>19.72765996561917</v>
       </c>
       <c r="C7">
-        <v>17.20632693257333</v>
+        <v>12.49544088271717</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.70884013108082</v>
+        <v>7.608310379442644</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>29.48889451025397</v>
+        <v>31.06373719926936</v>
       </c>
       <c r="H7">
-        <v>8.895453581181762</v>
+        <v>2.011180498603115</v>
       </c>
       <c r="I7">
-        <v>11.7704593673833</v>
+        <v>2.811629604869961</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.65537040136523</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.57987169889406</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>10.59923322692743</v>
+        <v>7.54162579660011</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.54568495772496</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.96694075265432</v>
+        <v>21.60011270492187</v>
       </c>
       <c r="C8">
-        <v>18.9180091145942</v>
+        <v>13.55533431032826</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.66762402069784</v>
+        <v>7.85801262304871</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>32.31193036724256</v>
+        <v>32.73575894385772</v>
       </c>
       <c r="H8">
-        <v>9.218031714158235</v>
+        <v>1.707834787608336</v>
       </c>
       <c r="I8">
-        <v>11.96159839638456</v>
+        <v>2.561645893474668</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.838988826645</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.75165294607317</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.31054362888368</v>
+        <v>7.972452445836089</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.38226561472846</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.66588052702922</v>
+        <v>24.89077513847607</v>
       </c>
       <c r="C9">
-        <v>21.96725139182582</v>
+        <v>15.42250364736805</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>35.02698656647068</v>
+        <v>8.325119618658047</v>
       </c>
       <c r="F9">
-        <v>34.45877994148621</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>37.90346520854586</v>
+        <v>36.00573396589365</v>
       </c>
       <c r="H9">
-        <v>9.946250508705001</v>
+        <v>1.962683953986453</v>
       </c>
       <c r="I9">
-        <v>12.55180770118229</v>
+        <v>2.851656665946739</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.24255779533583</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.16669220906434</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.763735243232439</v>
+        <v>8.756632281963061</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.07318750746637</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.14927221441723</v>
+        <v>26.99610082313419</v>
       </c>
       <c r="C10">
-        <v>24.03284243443882</v>
+        <v>16.71114033370479</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.73589221273294</v>
+        <v>8.563042059841731</v>
       </c>
       <c r="F10">
-        <v>37.72874519847226</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>41.94475247483053</v>
+        <v>37.93405183101184</v>
       </c>
       <c r="H10">
-        <v>10.54431761905632</v>
+        <v>2.329128783375388</v>
       </c>
       <c r="I10">
-        <v>13.13711295705552</v>
+        <v>3.161502597722379</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.47373902931418</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.34498754200898</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.371142111070974</v>
+        <v>9.153965590860189</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.86942802321597</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.23146870517513</v>
+        <v>27.09310246003871</v>
       </c>
       <c r="C11">
-        <v>24.93803745163527</v>
+        <v>17.49441507253705</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>40.38461198825412</v>
+        <v>8.105202595934694</v>
       </c>
       <c r="F11">
-        <v>39.14805722232853</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>43.76625459697194</v>
+        <v>35.80153783561143</v>
       </c>
       <c r="H11">
-        <v>10.85195924720992</v>
+        <v>3.119626878028477</v>
       </c>
       <c r="I11">
-        <v>13.44046680213257</v>
+        <v>3.236409748800442</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.96611590580259</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.27543252404803</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.193892460092737</v>
+        <v>8.151223225627193</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>11.93559074863718</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.63475540550568</v>
+        <v>26.76856194989804</v>
       </c>
       <c r="C12">
-        <v>25.27619832639517</v>
+        <v>17.87645441559697</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>41.00452025756434</v>
+        <v>7.952253678315572</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>44.45435376481499</v>
+        <v>33.66722755564425</v>
       </c>
       <c r="H12">
-        <v>11.01936896670892</v>
+        <v>4.310534900588087</v>
       </c>
       <c r="I12">
-        <v>13.61094400812127</v>
+        <v>3.237108963796762</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.50487385295829</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.38661252166898</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.126908307741028</v>
+        <v>7.254651819858808</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.07061362654154</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.5481847663011</v>
+        <v>26.0602254322695</v>
       </c>
       <c r="C13">
-        <v>25.20356869488242</v>
+        <v>18.00278615548586</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.87118902933251</v>
+        <v>8.025361119877736</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>44.30621882870837</v>
+        <v>31.23982167996694</v>
       </c>
       <c r="H13">
-        <v>10.98331793666047</v>
+        <v>5.591348201931481</v>
       </c>
       <c r="I13">
-        <v>13.56301765466656</v>
+        <v>3.183583196454164</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.02594500227772</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.5408488100965</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.141329431711428</v>
+        <v>6.387891222433051</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.26086336184903</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.26477600172478</v>
+        <v>25.37452410908861</v>
       </c>
       <c r="C14">
-        <v>24.96594854788055</v>
+        <v>17.98161128797338</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>40.43569388097593</v>
+        <v>8.211752039035767</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>43.82289313572799</v>
+        <v>29.36343410493468</v>
       </c>
       <c r="H14">
-        <v>10.86573410983838</v>
+        <v>6.519086125900325</v>
       </c>
       <c r="I14">
-        <v>13.45026872902446</v>
+        <v>3.122874657780608</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.679597135786011</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.97080838524089</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.188379241609677</v>
+        <v>5.814254777876247</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.42119555387932</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.09034127828335</v>
+        <v>25.11483049792437</v>
       </c>
       <c r="C15">
-        <v>24.81980905359108</v>
+        <v>17.92657356208224</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>40.1684002872675</v>
+        <v>8.264997720730175</v>
       </c>
       <c r="F15">
-        <v>38.96319309154514</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>43.52665182280578</v>
+        <v>28.81712633181075</v>
       </c>
       <c r="H15">
-        <v>10.79369621511313</v>
+        <v>6.729911276121718</v>
       </c>
       <c r="I15">
-        <v>13.39924299941588</v>
+        <v>3.097006639718179</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.587606789919391</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.83290309837348</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.217214610143227</v>
+        <v>5.67752207815662</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.4682698449579</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.07761794500518</v>
+        <v>24.31865740111015</v>
       </c>
       <c r="C16">
-        <v>23.97302015851672</v>
+        <v>17.39192173272419</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.62746055894388</v>
+        <v>8.13538586769433</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.82543369339151</v>
+        <v>28.29967663133196</v>
       </c>
       <c r="H16">
-        <v>10.52587032672032</v>
+        <v>6.456251086303744</v>
       </c>
       <c r="I16">
-        <v>13.11806342890254</v>
+        <v>2.97729348720888</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.568825199968908</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.91186984629399</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.382748083824783</v>
+        <v>5.64827656626801</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.49795755497363</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.44438621277923</v>
+        <v>24.0783654012409</v>
       </c>
       <c r="C17">
-        <v>23.444941983374</v>
+        <v>16.9849868647297</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.67301844288003</v>
+        <v>7.909421739011357</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>40.77794306242821</v>
+        <v>28.93771882945363</v>
       </c>
       <c r="H17">
-        <v>10.36589372903853</v>
+        <v>5.703327501401429</v>
       </c>
       <c r="I17">
-        <v>12.95530917235121</v>
+        <v>2.917663650206591</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.739674697225553</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.26911367781744</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.484602675900794</v>
+        <v>5.924933715154427</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.43708712805204</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.07567487422276</v>
+        <v>24.32029662540829</v>
       </c>
       <c r="C18">
-        <v>23.13793941151531</v>
+        <v>16.6374314340493</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>37.12035039209125</v>
+        <v>7.714004056082412</v>
       </c>
       <c r="F18">
-        <v>36.31710943239627</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.17380549436596</v>
+        <v>30.69354314786747</v>
       </c>
       <c r="H18">
-        <v>10.27528099716926</v>
+        <v>4.488510058096274</v>
       </c>
       <c r="I18">
-        <v>12.86516804956427</v>
+        <v>2.902506913640024</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.10410534538117</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.94177594020636</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.543316816371153</v>
+        <v>6.550367958181575</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.30315532904356</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.95005497797299</v>
+        <v>24.89076422625572</v>
       </c>
       <c r="C19">
-        <v>23.03342326012811</v>
+        <v>16.39455720589083</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.9325605832543</v>
+        <v>7.777001374676845</v>
       </c>
       <c r="F19">
-        <v>36.1517249415007</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>39.96895176121354</v>
+        <v>33.06620615663955</v>
       </c>
       <c r="H19">
-        <v>10.24483815103671</v>
+        <v>3.140627797587511</v>
       </c>
       <c r="I19">
-        <v>12.83523373143216</v>
+        <v>2.935836234885653</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.57549807134778</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.79811316300713</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.563220402982697</v>
+        <v>7.463060525831732</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.15330408796331</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.51225770528223</v>
+        <v>26.39024694810703</v>
       </c>
       <c r="C20">
-        <v>23.50149254876175</v>
+        <v>16.42075929677899</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.77499576179974</v>
+        <v>8.486949652659723</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>40.88961597181245</v>
+        <v>37.20873754792719</v>
       </c>
       <c r="H20">
-        <v>10.3827775646082</v>
+        <v>2.228409049786952</v>
       </c>
       <c r="I20">
-        <v>12.97227299484564</v>
+        <v>3.088474474524923</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.36624338581748</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.20370568766108</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.473747013437507</v>
+        <v>9.04686347833754</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.9305285344904</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.34819417641703</v>
+        <v>28.09425909463809</v>
       </c>
       <c r="C21">
-        <v>25.03586567941923</v>
+        <v>17.32709046188636</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>40.56371968925868</v>
+        <v>8.801610333086812</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>43.96489561001108</v>
+        <v>39.22757515683548</v>
       </c>
       <c r="H21">
-        <v>10.90027394526531</v>
+        <v>2.525634962579781</v>
       </c>
       <c r="I21">
-        <v>13.47493957437193</v>
+        <v>3.332944622551905</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.66346594011564</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.5674829162871</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.174556345600092</v>
+        <v>9.5556245179562</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>11.75547003960328</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.51027628395745</v>
+        <v>29.13485154310707</v>
       </c>
       <c r="C22">
-        <v>26.01195564191892</v>
+        <v>17.89679770464404</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>42.36117751950803</v>
+        <v>8.9640612682566</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>45.96558205950794</v>
+        <v>40.43177647357799</v>
       </c>
       <c r="H22">
-        <v>11.3874742836235</v>
+        <v>2.710634591417942</v>
       </c>
       <c r="I22">
-        <v>14.10212235534429</v>
+        <v>3.483789634874968</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.84148609254111</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.77788972321069</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.979783187709655</v>
+        <v>9.807683190025642</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.64580416159314</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.89339421916227</v>
+        <v>28.60566045026755</v>
       </c>
       <c r="C23">
-        <v>25.49331561169461</v>
+        <v>17.5806545351308</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>41.40372092891105</v>
+        <v>8.881422545274068</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>44.89830868661431</v>
+        <v>39.8663844453293</v>
       </c>
       <c r="H23">
-        <v>11.12744728176088</v>
+        <v>2.613624790130432</v>
       </c>
       <c r="I23">
-        <v>13.75481745904906</v>
+        <v>3.400661962492413</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.76217053964125</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.69780396844442</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.0836873424667</v>
+        <v>9.673252751609555</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>11.70100679127341</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.48158753517182</v>
+        <v>26.47094983439247</v>
       </c>
       <c r="C24">
-        <v>23.47593666362997</v>
+        <v>16.36400596653169</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.72890418902561</v>
+        <v>8.557084388052298</v>
       </c>
       <c r="F24">
-        <v>36.85121910575441</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>40.83913468874955</v>
+        <v>37.56599180959885</v>
       </c>
       <c r="H24">
-        <v>10.37514015652315</v>
+        <v>2.237364450035464</v>
       </c>
       <c r="I24">
-        <v>12.96459299736321</v>
+        <v>3.085661428478434</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.44108118428253</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>17.35169611678536</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.478654366556974</v>
+        <v>9.149488781245875</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.91838761685235</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.70735832049798</v>
+        <v>24.00721676195573</v>
       </c>
       <c r="C25">
-        <v>21.17406019498994</v>
+        <v>14.96161793934365</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.62061359688616</v>
+        <v>8.195470990575558</v>
       </c>
       <c r="F25">
-        <v>33.19272459126707</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>36.39626521000809</v>
+        <v>35.0098079596881</v>
       </c>
       <c r="H25">
-        <v>9.738550823367689</v>
+        <v>1.816466708223871</v>
       </c>
       <c r="I25">
-        <v>12.3669225214005</v>
+        <v>2.736833758193941</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.10592748667593</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.99965415734307</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.909853575412663</v>
+        <v>8.552234817154023</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.1590682551458</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.11154964270019</v>
+        <v>21.43696034730829</v>
       </c>
       <c r="C2">
-        <v>13.80945328236312</v>
+        <v>14.06115335337769</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.92884809534938</v>
+        <v>7.789551245701571</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>33.28640541340955</v>
+        <v>30.50899408830414</v>
       </c>
       <c r="H2">
-        <v>1.626273770965581</v>
+        <v>1.584134626029393</v>
       </c>
       <c r="I2">
-        <v>2.481643968862326</v>
+        <v>2.520206696938307</v>
       </c>
       <c r="J2">
-        <v>10.91043930182739</v>
+        <v>10.89126895566478</v>
       </c>
       <c r="K2">
-        <v>16.84109030450605</v>
+        <v>15.83829616482196</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.44725246814925</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.08778012629691</v>
       </c>
       <c r="N2">
-        <v>8.084476438916747</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.33652531967215</v>
+        <v>8.157245373037522</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.32807843795139</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.68653082252826</v>
+        <v>20.0864072885299</v>
       </c>
       <c r="C3">
-        <v>13.00173218782403</v>
+        <v>13.1967186468882</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.735372280685658</v>
+        <v>7.625468594598926</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>31.97180937280596</v>
+        <v>29.44883584515559</v>
       </c>
       <c r="H3">
-        <v>1.860250190797468</v>
+        <v>1.7950684729887</v>
       </c>
       <c r="I3">
-        <v>2.67596977054578</v>
+        <v>2.595484725592171</v>
       </c>
       <c r="J3">
-        <v>10.76056449112463</v>
+        <v>10.75482986419432</v>
       </c>
       <c r="K3">
-        <v>16.69603725219145</v>
+        <v>15.78503234214203</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.52398345133456</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.925653180142181</v>
       </c>
       <c r="N3">
-        <v>7.752946779284548</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.46385976996466</v>
+        <v>7.833216076530356</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>12.42209908683641</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.75843421123218</v>
+        <v>19.20543791665139</v>
       </c>
       <c r="C4">
-        <v>12.48246487190716</v>
+        <v>12.640003983974</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.612861054790618</v>
+        <v>7.521533786032498</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.14866830924035</v>
+        <v>28.78829709000377</v>
       </c>
       <c r="H4">
-        <v>2.008841347293358</v>
+        <v>1.929171100101265</v>
       </c>
       <c r="I4">
-        <v>2.800194986260027</v>
+        <v>2.702859731532708</v>
       </c>
       <c r="J4">
-        <v>10.67078904419883</v>
+        <v>10.67040168946309</v>
       </c>
       <c r="K4">
-        <v>16.61012330661899</v>
+        <v>15.75419238741919</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.56920723372564</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.845965313017366</v>
       </c>
       <c r="N4">
-        <v>7.542220059159332</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.54388984623217</v>
+        <v>7.627553780392537</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>12.48247752372793</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.35909804946304</v>
+        <v>18.82596602118974</v>
       </c>
       <c r="C5">
-        <v>12.26986039005644</v>
+        <v>12.41148266546018</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.560826993838702</v>
+        <v>7.477313180274373</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>30.78535776086963</v>
+        <v>28.49376912975628</v>
       </c>
       <c r="H5">
-        <v>2.071113548149914</v>
+        <v>1.985412788463254</v>
       </c>
       <c r="I5">
-        <v>2.855187781419732</v>
+        <v>2.751417728349253</v>
       </c>
       <c r="J5">
-        <v>10.63030338951455</v>
+        <v>10.63166449295449</v>
       </c>
       <c r="K5">
-        <v>16.56697013814604</v>
+        <v>15.73393553732722</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.58018862472881</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.813262379033091</v>
       </c>
       <c r="N5">
-        <v>7.454793377831888</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.57733436588565</v>
+        <v>7.542307111347937</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>12.50838381045826</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.2824463520129</v>
+        <v>18.75303297663602</v>
       </c>
       <c r="C6">
-        <v>12.2401194437071</v>
+        <v>12.37905324233033</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.550701976606939</v>
+        <v>7.468628954787341</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>30.69512445211612</v>
+        <v>28.41635097441604</v>
       </c>
       <c r="H6">
-        <v>2.082089673524346</v>
+        <v>1.995337408856482</v>
       </c>
       <c r="I6">
-        <v>2.868414511268397</v>
+        <v>2.764220191157318</v>
       </c>
       <c r="J6">
-        <v>10.61814431987433</v>
+        <v>10.62011103546807</v>
       </c>
       <c r="K6">
-        <v>16.548955021676</v>
+        <v>15.72067040963422</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.57347927976322</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.801622639061042</v>
       </c>
       <c r="N6">
-        <v>7.440386259624561</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.58337400074255</v>
+        <v>7.528263032479905</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>12.51352580808896</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.72765996561917</v>
+        <v>19.16444575468308</v>
       </c>
       <c r="C7">
-        <v>12.49544088271717</v>
+        <v>12.63624726335989</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.608310379442644</v>
+        <v>7.518729145625419</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.06373719926936</v>
+        <v>28.77929482863442</v>
       </c>
       <c r="H7">
-        <v>2.011180498603115</v>
+        <v>1.932123087482546</v>
       </c>
       <c r="I7">
-        <v>2.811629604869961</v>
+        <v>2.716751884556086</v>
       </c>
       <c r="J7">
-        <v>10.65537040136523</v>
+        <v>10.60257153567776</v>
       </c>
       <c r="K7">
-        <v>16.57987169889406</v>
+        <v>15.71428945919781</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.5359293004235</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.818752001007931</v>
       </c>
       <c r="N7">
-        <v>7.54162579660011</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.54568495772496</v>
+        <v>7.62538593969242</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>12.48630438378167</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.60011270492187</v>
+        <v>20.91679646354948</v>
       </c>
       <c r="C8">
-        <v>13.55533431032826</v>
+        <v>13.73699489575966</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.85801262304871</v>
+        <v>7.733485355046104</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>32.73575894385772</v>
+        <v>30.27721579622206</v>
       </c>
       <c r="H8">
-        <v>1.707834787608336</v>
+        <v>1.660198846717505</v>
       </c>
       <c r="I8">
-        <v>2.561645893474668</v>
+        <v>2.503770438815639</v>
       </c>
       <c r="J8">
-        <v>10.838988826645</v>
+        <v>10.65305839018489</v>
       </c>
       <c r="K8">
-        <v>16.75165294607317</v>
+        <v>15.74318027205466</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.41318919700046</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.971829317541559</v>
       </c>
       <c r="N8">
-        <v>7.972452445836089</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.38226561472846</v>
+        <v>8.042723907005099</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>12.36812786180129</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.89077513847607</v>
+        <v>24.03327280816966</v>
       </c>
       <c r="C9">
-        <v>15.42250364736805</v>
+        <v>15.72388776204717</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.325119618658047</v>
+        <v>8.130818059382038</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>36.00573396589365</v>
+        <v>32.99009349735996</v>
       </c>
       <c r="H9">
-        <v>1.962683953986453</v>
+        <v>1.954135443689759</v>
       </c>
       <c r="I9">
-        <v>2.851656665946739</v>
+        <v>2.853158399720561</v>
       </c>
       <c r="J9">
-        <v>11.24255779533583</v>
+        <v>10.96419628462955</v>
       </c>
       <c r="K9">
-        <v>17.16669220906434</v>
+        <v>15.90953977067846</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.23350156499562</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.4910241742544</v>
       </c>
       <c r="N9">
-        <v>8.756632281963061</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.07318750746637</v>
+        <v>8.809676252849959</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.14855777979229</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.99610082313419</v>
+        <v>25.98006107710208</v>
       </c>
       <c r="C10">
-        <v>16.71114033370479</v>
+        <v>17.00642209510498</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.563042059841731</v>
+        <v>8.332991313209863</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>37.93405183101184</v>
+        <v>34.94293063447821</v>
       </c>
       <c r="H10">
-        <v>2.329128783375388</v>
+        <v>2.27908367320385</v>
       </c>
       <c r="I10">
-        <v>3.161502597722379</v>
+        <v>3.117007373562929</v>
       </c>
       <c r="J10">
-        <v>11.47373902931418</v>
+        <v>10.84215683895878</v>
       </c>
       <c r="K10">
-        <v>17.34498754200898</v>
+        <v>15.85720688218709</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.9616534162199</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.80048228692531</v>
       </c>
       <c r="N10">
-        <v>9.153965590860189</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.86942802321597</v>
+        <v>9.188202183239634</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.03195759944439</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.09310246003871</v>
+        <v>26.02023106256516</v>
       </c>
       <c r="C11">
-        <v>17.49441507253705</v>
+        <v>17.60129683659486</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.105202595934694</v>
+        <v>7.908723946953631</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>35.80153783561143</v>
+        <v>33.78734256011295</v>
       </c>
       <c r="H11">
-        <v>3.119626878028477</v>
+        <v>3.072053153878421</v>
       </c>
       <c r="I11">
-        <v>3.236409748800442</v>
+        <v>3.178683215434214</v>
       </c>
       <c r="J11">
-        <v>10.96611590580259</v>
+        <v>9.841042379028734</v>
       </c>
       <c r="K11">
-        <v>16.27543252404803</v>
+        <v>14.79146938567334</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.12747912619301</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.0710216276182</v>
       </c>
       <c r="N11">
-        <v>8.151223225627193</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>11.93559074863718</v>
+        <v>8.16166788138956</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.20187644604797</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.76856194989804</v>
+        <v>25.71421256086614</v>
       </c>
       <c r="C12">
-        <v>17.87645441559697</v>
+        <v>17.86865400846639</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.952253678315572</v>
+        <v>7.776536642016072</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>33.66722755564425</v>
+        <v>32.25450988678122</v>
       </c>
       <c r="H12">
-        <v>4.310534900588087</v>
+        <v>4.275871852825117</v>
       </c>
       <c r="I12">
-        <v>3.237108963796762</v>
+        <v>3.177406129428741</v>
       </c>
       <c r="J12">
-        <v>10.50487385295829</v>
+        <v>9.240867052715869</v>
       </c>
       <c r="K12">
-        <v>15.38661252166898</v>
+        <v>14.00409034792017</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.57072876089627</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.451598549924409</v>
       </c>
       <c r="N12">
-        <v>7.254651819858808</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.07061362654154</v>
+        <v>7.253460268209376</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.3915558366111</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.0602254322695</v>
+        <v>25.10784459452149</v>
       </c>
       <c r="C13">
-        <v>18.00278615548586</v>
+        <v>17.96017427719384</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.025361119877736</v>
+        <v>7.87398480952054</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>31.23982167996694</v>
+        <v>30.03368623287527</v>
       </c>
       <c r="H13">
-        <v>5.591348201931481</v>
+        <v>5.569007489441284</v>
       </c>
       <c r="I13">
-        <v>3.183583196454164</v>
+        <v>3.133576371687247</v>
       </c>
       <c r="J13">
-        <v>10.02594500227772</v>
+        <v>8.960565187746925</v>
       </c>
       <c r="K13">
-        <v>14.5408488100965</v>
+        <v>13.36556644796159</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.16263857975094</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.873285604918502</v>
       </c>
       <c r="N13">
-        <v>6.387891222433051</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.26086336184903</v>
+        <v>6.386652334715795</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.58853838857391</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.37452410908861</v>
+        <v>24.53205321538538</v>
       </c>
       <c r="C14">
-        <v>17.98161128797338</v>
+        <v>17.94932505734305</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.211752039035767</v>
+        <v>8.084398944854163</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>29.36343410493468</v>
+        <v>28.13220341891598</v>
       </c>
       <c r="H14">
-        <v>6.519086125900325</v>
+        <v>6.504041347190561</v>
       </c>
       <c r="I14">
-        <v>3.122874657780608</v>
+        <v>3.08514151685091</v>
       </c>
       <c r="J14">
-        <v>9.679597135786011</v>
+        <v>8.884995147815058</v>
       </c>
       <c r="K14">
-        <v>13.97080838524089</v>
+        <v>12.98099154463842</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.93389665314314</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.487285359096983</v>
       </c>
       <c r="N14">
-        <v>5.814254777876247</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.42119555387932</v>
+        <v>5.817993577724692</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.7288238419106</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.11483049792437</v>
+        <v>24.31610289914949</v>
       </c>
       <c r="C15">
-        <v>17.92657356208224</v>
+        <v>17.91184198026317</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.264997720730175</v>
+        <v>8.147611007442773</v>
       </c>
       <c r="F15">
-        <v>38.96319309154519</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>28.81712633181075</v>
+        <v>27.50858758909326</v>
       </c>
       <c r="H15">
-        <v>6.729911276121718</v>
+        <v>6.717077444905185</v>
       </c>
       <c r="I15">
-        <v>3.097006639718179</v>
+        <v>3.065313434653666</v>
       </c>
       <c r="J15">
-        <v>9.587606789919391</v>
+        <v>8.914368047956858</v>
       </c>
       <c r="K15">
-        <v>13.83290309837348</v>
+        <v>12.90540244498004</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.8952684471109</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.395506350216872</v>
       </c>
       <c r="N15">
-        <v>5.67752207815662</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.4682698449579</v>
+        <v>5.684590032738218</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.76175011468153</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.31865740111015</v>
+        <v>23.660050722502</v>
       </c>
       <c r="C16">
-        <v>17.39192173272419</v>
+        <v>17.50216077002272</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.13538586769433</v>
+        <v>8.051154828327398</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>28.29967663133196</v>
+        <v>26.40489392313499</v>
       </c>
       <c r="H16">
-        <v>6.456251086303744</v>
+        <v>6.450188715461699</v>
       </c>
       <c r="I16">
-        <v>2.97729348720888</v>
+        <v>2.969559541309519</v>
       </c>
       <c r="J16">
-        <v>9.568825199968908</v>
+        <v>9.363158528526045</v>
       </c>
       <c r="K16">
-        <v>13.91186984629399</v>
+        <v>13.12112879443591</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.08943551048131</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.462018656323483</v>
       </c>
       <c r="N16">
-        <v>5.64827656626801</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.49795755497363</v>
+        <v>5.67390340795221</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.71699204732899</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.0783654012409</v>
+        <v>23.45372968304832</v>
       </c>
       <c r="C17">
-        <v>16.9849868647297</v>
+        <v>17.16574025307584</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.909421739011357</v>
+        <v>7.828517654623012</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>28.93771882945363</v>
+        <v>26.6994818358114</v>
       </c>
       <c r="H17">
-        <v>5.703327501401429</v>
+        <v>5.699920546410787</v>
       </c>
       <c r="I17">
-        <v>2.917663650206591</v>
+        <v>2.921033008436993</v>
       </c>
       <c r="J17">
-        <v>9.739674697225553</v>
+        <v>9.706634753132816</v>
       </c>
       <c r="K17">
-        <v>14.26911367781744</v>
+        <v>13.47880468934263</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.3648602836983</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.700037132349889</v>
       </c>
       <c r="N17">
-        <v>5.924933715154427</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.43708712805204</v>
+        <v>5.961056655243602</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.61973140363512</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.32029662540829</v>
+        <v>23.65879748692035</v>
       </c>
       <c r="C18">
-        <v>16.6374314340493</v>
+        <v>16.87678991862571</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.714004056082412</v>
+        <v>7.610098016925917</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>30.69354314786747</v>
+        <v>28.14205095888892</v>
       </c>
       <c r="H18">
-        <v>4.488510058096274</v>
+        <v>4.484866356258124</v>
       </c>
       <c r="I18">
-        <v>2.902506913640024</v>
+        <v>2.906641039094238</v>
       </c>
       <c r="J18">
-        <v>10.10410534538117</v>
+        <v>10.09545865642062</v>
       </c>
       <c r="K18">
-        <v>14.94177594020636</v>
+        <v>14.05513663823906</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.78654378342582</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.147525010588822</v>
       </c>
       <c r="N18">
-        <v>6.550367958181575</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.30315532904356</v>
+        <v>6.593204515211835</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.46493576523611</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.89076422625572</v>
+        <v>24.14879527953428</v>
       </c>
       <c r="C19">
-        <v>16.39455720589083</v>
+        <v>16.68887352856968</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.777001374676845</v>
+        <v>7.629892860713976</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>33.06620615663955</v>
+        <v>30.19802105968215</v>
       </c>
       <c r="H19">
-        <v>3.140627797587511</v>
+        <v>3.132220898620382</v>
       </c>
       <c r="I19">
-        <v>2.935836234885653</v>
+        <v>2.935038142796449</v>
       </c>
       <c r="J19">
-        <v>10.57549807134778</v>
+        <v>10.50988019127991</v>
       </c>
       <c r="K19">
-        <v>15.79811316300713</v>
+        <v>14.75548915614884</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.28949613306249</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.717150627974034</v>
       </c>
       <c r="N19">
-        <v>7.463060525831732</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.15330408796331</v>
+        <v>7.509822490658426</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.29934090745785</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.39024694810703</v>
+        <v>25.45509604549981</v>
       </c>
       <c r="C20">
-        <v>16.42075929677899</v>
+        <v>16.76377111097148</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.486949652659723</v>
+        <v>8.263196876372682</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>37.20873754792719</v>
+        <v>34.00197691363465</v>
       </c>
       <c r="H20">
-        <v>2.228409049786952</v>
+        <v>2.1918952240906</v>
       </c>
       <c r="I20">
-        <v>3.088474474524923</v>
+        <v>3.06233651443463</v>
       </c>
       <c r="J20">
-        <v>11.36624338581748</v>
+        <v>11.00854325653159</v>
       </c>
       <c r="K20">
-        <v>17.20370568766108</v>
+        <v>15.82942912813139</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.00383253782728</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.68168713742643</v>
       </c>
       <c r="N20">
-        <v>9.04686347833754</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.9305285344904</v>
+        <v>9.090577632083569</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.06694891661977</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.09425909463809</v>
+        <v>26.84630857108594</v>
       </c>
       <c r="C21">
-        <v>17.32709046188636</v>
+        <v>17.43825865940007</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.801610333086812</v>
+        <v>8.56798254357185</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>39.22757515683548</v>
+        <v>37.11381158308269</v>
       </c>
       <c r="H21">
-        <v>2.525634962579781</v>
+        <v>2.443836859203684</v>
       </c>
       <c r="I21">
-        <v>3.332944622551905</v>
+        <v>3.257360208913714</v>
       </c>
       <c r="J21">
-        <v>11.66346594011564</v>
+        <v>10.12069157071156</v>
       </c>
       <c r="K21">
-        <v>17.5674829162871</v>
+        <v>15.75167185933957</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.77100301394635</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.90208727587392</v>
       </c>
       <c r="N21">
-        <v>9.5556245179562</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.75547003960328</v>
+        <v>9.562057058595244</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.99233820642242</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.13485154310707</v>
+        <v>27.68463661825394</v>
       </c>
       <c r="C22">
-        <v>17.89679770464404</v>
+        <v>17.84476276549775</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.9640612682566</v>
+        <v>8.731329741672669</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>40.43177647357799</v>
+        <v>39.11520543006664</v>
       </c>
       <c r="H22">
-        <v>2.710634591417942</v>
+        <v>2.599955413231786</v>
       </c>
       <c r="I22">
-        <v>3.483789634874968</v>
+        <v>3.37520758596993</v>
       </c>
       <c r="J22">
-        <v>11.84148609254111</v>
+        <v>9.500005002002505</v>
       </c>
       <c r="K22">
-        <v>17.77788972321069</v>
+        <v>15.66374910448051</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.59444924453963</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.02242570043675</v>
       </c>
       <c r="N22">
-        <v>9.807683190025642</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.64580416159314</v>
+        <v>9.788841537872999</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.95708101717312</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.60566045026755</v>
+        <v>27.28380043207429</v>
       </c>
       <c r="C23">
-        <v>17.5806545351308</v>
+        <v>17.64729414410765</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.881422545274068</v>
+        <v>8.64369859272959</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>39.8663844453293</v>
+        <v>37.96498988748441</v>
       </c>
       <c r="H23">
-        <v>2.613624790130432</v>
+        <v>2.519609190029498</v>
       </c>
       <c r="I23">
-        <v>3.400661962492413</v>
+        <v>3.309557674510878</v>
       </c>
       <c r="J23">
-        <v>11.76217053964125</v>
+        <v>9.957663769086425</v>
       </c>
       <c r="K23">
-        <v>17.69780396844442</v>
+        <v>15.77042406279712</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.72882426094935</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.00792005056965</v>
       </c>
       <c r="N23">
-        <v>9.673252751609555</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.70100679127341</v>
+        <v>9.67109326509787</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.96442069135796</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.47094983439247</v>
+        <v>25.52778889668681</v>
       </c>
       <c r="C24">
-        <v>16.36400596653169</v>
+        <v>16.71397901851196</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.557084388052298</v>
+        <v>8.32842362080083</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>37.56599180959885</v>
+        <v>34.31385980165146</v>
       </c>
       <c r="H24">
-        <v>2.237364450035464</v>
+        <v>2.200169907560769</v>
       </c>
       <c r="I24">
-        <v>3.085661428478434</v>
+        <v>3.056641780099892</v>
       </c>
       <c r="J24">
-        <v>11.44108118428253</v>
+        <v>11.08205661586413</v>
       </c>
       <c r="K24">
-        <v>17.35169611678536</v>
+        <v>15.95781749438251</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.0978929826022</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.78268254794629</v>
       </c>
       <c r="N24">
-        <v>9.149488781245875</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.91838761685235</v>
+        <v>9.193840791806121</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.04789491503477</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.00721676195573</v>
+        <v>23.20453657845764</v>
       </c>
       <c r="C25">
-        <v>14.96161793934365</v>
+        <v>15.25276782706598</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.195470990575558</v>
+        <v>8.01841667515022</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>35.0098079596881</v>
+        <v>32.05187595885264</v>
       </c>
       <c r="H25">
-        <v>1.816466708223871</v>
+        <v>1.823791966147219</v>
       </c>
       <c r="I25">
-        <v>2.736833758193941</v>
+        <v>2.758099140019264</v>
       </c>
       <c r="J25">
-        <v>11.10592748667593</v>
+        <v>10.92976130960668</v>
       </c>
       <c r="K25">
-        <v>16.99965415734307</v>
+        <v>15.8332693580212</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.26197681961902</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.31198517514594</v>
       </c>
       <c r="N25">
-        <v>8.552234817154023</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.1590682551458</v>
+        <v>8.611595902334916</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.20925576338632</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
